--- a/100runs/run042/NotionalETEOutput042.xlsx
+++ b/100runs/run042/NotionalETEOutput042.xlsx
@@ -49,22 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_361.MISSILE_HELLMASKER_361</t>
+    <t>MISSILE_BRAVER_15.MISSILE_BRAVER_15</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_25.MISSILE_HIGHWIND_25</t>
+    <t>MISSILE_HIGHWIND_86.MISSILE_HIGHWIND_86</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_227.MISSILE_HIGHWIND_227</t>
+    <t>MISSILE_BRAVER_452.MISSILE_BRAVER_452</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
@@ -483,22 +483,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>210.7739814472879</v>
+        <v>1116579.968364026</v>
       </c>
       <c r="G2">
-        <v>-90.55203040648337</v>
+        <v>4841120.3250679</v>
       </c>
       <c r="H2">
-        <v>971.5816224957365</v>
+        <v>3985230.459809824</v>
       </c>
       <c r="I2">
-        <v>-1454.829175890902</v>
+        <v>1114861.819547792</v>
       </c>
       <c r="J2">
-        <v>2423.339445071137</v>
+        <v>4843223.576842397</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984369.14055896</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,22 +518,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>210.7739814472879</v>
+        <v>1116579.968364026</v>
       </c>
       <c r="G3">
-        <v>-90.55203040648337</v>
+        <v>4841120.3250679</v>
       </c>
       <c r="H3">
-        <v>971.5816224957365</v>
+        <v>3985230.459809824</v>
       </c>
       <c r="I3">
-        <v>-1426.10697413088</v>
+        <v>1114891.433556531</v>
       </c>
       <c r="J3">
-        <v>2364.389788653163</v>
+        <v>4843174.925251126</v>
       </c>
       <c r="K3">
-        <v>332.2365747178118</v>
+        <v>3984672.936460918</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,22 +553,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>210.7739814472879</v>
+        <v>1116579.968364026</v>
       </c>
       <c r="G4">
-        <v>-90.55203040648337</v>
+        <v>4841120.3250679</v>
       </c>
       <c r="H4">
-        <v>971.5816224957365</v>
+        <v>3985230.459809824</v>
       </c>
       <c r="I4">
-        <v>-1396.677514576458</v>
+        <v>1114921.776782991</v>
       </c>
       <c r="J4">
-        <v>2305.44013223519</v>
+        <v>4843126.273659854</v>
       </c>
       <c r="K4">
-        <v>647.9063109024075</v>
+        <v>3984961.583706655</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,22 +588,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>210.7739814472879</v>
+        <v>1116579.968364026</v>
       </c>
       <c r="G5">
-        <v>-90.55203040648337</v>
+        <v>4841120.3250679</v>
       </c>
       <c r="H5">
-        <v>971.5816224957365</v>
+        <v>3985230.459809824</v>
       </c>
       <c r="I5">
-        <v>-1366.523381655115</v>
+        <v>1114952.867183488</v>
       </c>
       <c r="J5">
-        <v>2246.490475817216</v>
+        <v>4843077.622068583</v>
       </c>
       <c r="K5">
-        <v>947.0092085537894</v>
+        <v>3985235.082296168</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,22 +623,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>210.7739814472879</v>
+        <v>1116579.968364026</v>
       </c>
       <c r="G6">
-        <v>-90.55203040648337</v>
+        <v>4841120.3250679</v>
       </c>
       <c r="H6">
-        <v>971.5816224957365</v>
+        <v>3985230.459809824</v>
       </c>
       <c r="I6">
-        <v>-1335.626730951878</v>
+        <v>1114984.723156493</v>
       </c>
       <c r="J6">
-        <v>2187.540819399243</v>
+        <v>4843028.970477312</v>
       </c>
       <c r="K6">
-        <v>1229.545267671956</v>
+        <v>3985493.432229461</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,22 +658,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>210.7739814472879</v>
+        <v>1116579.968364026</v>
       </c>
       <c r="G7">
-        <v>-90.55203040648337</v>
+        <v>4841120.3250679</v>
       </c>
       <c r="H7">
-        <v>971.5816224957365</v>
+        <v>3985230.459809824</v>
       </c>
       <c r="I7">
-        <v>-1303.96927864947</v>
+        <v>1115017.363553528</v>
       </c>
       <c r="J7">
-        <v>2128.591162981269</v>
+        <v>4842980.318886041</v>
       </c>
       <c r="K7">
-        <v>1495.514488256909</v>
+        <v>3985736.633506531</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,22 +693,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>210.7739814472879</v>
+        <v>1116579.968364026</v>
       </c>
       <c r="G8">
-        <v>-90.55203040648337</v>
+        <v>4841120.3250679</v>
       </c>
       <c r="H8">
-        <v>971.5816224957365</v>
+        <v>3985230.459809824</v>
       </c>
       <c r="I8">
-        <v>-1271.532290708438</v>
+        <v>1115050.80769031</v>
       </c>
       <c r="J8">
-        <v>2069.641506563295</v>
+        <v>4842931.667294769</v>
       </c>
       <c r="K8">
-        <v>1744.916870308646</v>
+        <v>3985964.686127379</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,22 +728,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>210.7739814472879</v>
+        <v>1116579.968364026</v>
       </c>
       <c r="G9">
-        <v>-90.55203040648337</v>
+        <v>4841120.3250679</v>
       </c>
       <c r="H9">
-        <v>971.5816224957365</v>
+        <v>3985230.459809824</v>
       </c>
       <c r="I9">
-        <v>-1238.29657178084</v>
+        <v>1115085.075358193</v>
       </c>
       <c r="J9">
-        <v>2010.691850145322</v>
+        <v>4842883.015703497</v>
       </c>
       <c r="K9">
-        <v>1977.752413827169</v>
+        <v>3986177.590092004</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,22 +763,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>210.7739814472879</v>
+        <v>1116579.968364026</v>
       </c>
       <c r="G10">
-        <v>-75.59934131440598</v>
+        <v>4841136.837872654</v>
       </c>
       <c r="H10">
-        <v>971.5816224957365</v>
+        <v>3985230.459809824</v>
       </c>
       <c r="I10">
-        <v>-1204.24245385095</v>
+        <v>1115120.186835872</v>
       </c>
       <c r="J10">
-        <v>1951.742193727349</v>
+        <v>4842834.364112226</v>
       </c>
       <c r="K10">
-        <v>2194.021118812477</v>
+        <v>3986375.345400408</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,22 +798,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.5851977493476</v>
+        <v>1116531.287736407</v>
       </c>
       <c r="G11">
-        <v>-60.64665222232858</v>
+        <v>4841153.350677408</v>
       </c>
       <c r="H11">
-        <v>1196.98202108778</v>
+        <v>3985429.714323168</v>
       </c>
       <c r="I11">
-        <v>-1169.349784596251</v>
+        <v>1115156.162901386</v>
       </c>
       <c r="J11">
-        <v>1892.792537309375</v>
+        <v>4842785.712520955</v>
       </c>
       <c r="K11">
-        <v>2393.722985264569</v>
+        <v>3986557.95205259</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,22 +833,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>135.8641545717377</v>
+        <v>1116502.690309764</v>
       </c>
       <c r="G12">
-        <v>-45.69396313025121</v>
+        <v>4841169.863482162</v>
       </c>
       <c r="H12">
-        <v>1331.242025903214</v>
+        <v>3985548.400501578</v>
       </c>
       <c r="I12">
-        <v>-1133.597915461823</v>
+        <v>1115193.024844417</v>
       </c>
       <c r="J12">
-        <v>1833.842880891402</v>
+        <v>4842737.060929684</v>
       </c>
       <c r="K12">
-        <v>2576.858013183448</v>
+        <v>3986725.41004855</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,22 +868,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.3645983994064</v>
+        <v>1116484.637516054</v>
       </c>
       <c r="G13">
-        <v>-30.74127403817382</v>
+        <v>4841186.376286916</v>
       </c>
       <c r="H13">
-        <v>1427.188577057982</v>
+        <v>3985633.217491596</v>
       </c>
       <c r="I13">
-        <v>-1096.965689441074</v>
+        <v>1115230.794478882</v>
       </c>
       <c r="J13">
-        <v>1774.893224473428</v>
+        <v>4842688.409338413</v>
       </c>
       <c r="K13">
-        <v>2743.426202569112</v>
+        <v>3986877.719388287</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,22 +903,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>106.1604789596913</v>
+        <v>1116472.047571001</v>
       </c>
       <c r="G14">
-        <v>-15.78858494609643</v>
+        <v>4841202.889091671</v>
       </c>
       <c r="H14">
-        <v>1501.902105038798</v>
+        <v>3985699.264436281</v>
       </c>
       <c r="I14">
-        <v>-1059.431428555595</v>
+        <v>1115269.494155848</v>
       </c>
       <c r="J14">
-        <v>1715.943568055454</v>
+        <v>4842639.757747142</v>
       </c>
       <c r="K14">
-        <v>2893.427553421561</v>
+        <v>3987014.880071803</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,22 +938,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.05584038598595</v>
+        <v>1116462.655094966</v>
       </c>
       <c r="G15">
-        <v>-0.8358958540190505</v>
+        <v>4841219.401896425</v>
       </c>
       <c r="H15">
-        <v>1563.098279764568</v>
+        <v>3985753.362007047</v>
       </c>
       <c r="I15">
-        <v>-1020.972921026699</v>
+        <v>1115309.146776757</v>
       </c>
       <c r="J15">
-        <v>1656.993911637481</v>
+        <v>4842591.10615587</v>
       </c>
       <c r="K15">
-        <v>3026.862065740795</v>
+        <v>3987136.892099096</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,22 +973,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.93728444643143</v>
+        <v>1116455.311490327</v>
       </c>
       <c r="G16">
-        <v>14.11679323805834</v>
+        <v>4841235.914701179</v>
       </c>
       <c r="H16">
-        <v>1614.926972653051</v>
+        <v>3985799.178700554</v>
       </c>
       <c r="I16">
-        <v>-981.567408131081</v>
+        <v>1115349.775806976</v>
       </c>
       <c r="J16">
-        <v>1598.044255219507</v>
+        <v>4842542.454564598</v>
       </c>
       <c r="K16">
-        <v>3143.729739526814</v>
+        <v>3987243.755470168</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,22 +1008,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.1778543722782</v>
+        <v>1116449.369979468</v>
       </c>
       <c r="G17">
-        <v>29.06948233013573</v>
+        <v>4841252.427505933</v>
       </c>
       <c r="H17">
-        <v>1659.878924322084</v>
+        <v>3985838.916337708</v>
       </c>
       <c r="I17">
-        <v>-941.1915707328156</v>
+        <v>1115391.405289686</v>
       </c>
       <c r="J17">
-        <v>1539.094598801534</v>
+        <v>4842493.802973327</v>
       </c>
       <c r="K17">
-        <v>3244.030574779618</v>
+        <v>3987335.470185017</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,22 +1043,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.39547521082903</v>
+        <v>1116444.436408376</v>
       </c>
       <c r="G18">
-        <v>44.02217142221311</v>
+        <v>4841268.940310687</v>
       </c>
       <c r="H18">
-        <v>1699.567049483969</v>
+        <v>3985874.000739129</v>
       </c>
       <c r="I18">
-        <v>-899.8215154837076</v>
+        <v>1115434.059860109</v>
       </c>
       <c r="J18">
-        <v>1480.14494238356</v>
+        <v>4842445.151382056</v>
       </c>
       <c r="K18">
-        <v>3327.764571499209</v>
+        <v>3987412.036243644</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,22 +1078,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.34276870082373</v>
+        <v>1116440.255578081</v>
       </c>
       <c r="G19">
-        <v>58.97486051429051</v>
+        <v>4841285.453115441</v>
       </c>
       <c r="H19">
-        <v>1735.095907900783</v>
+        <v>3985905.408338396</v>
       </c>
       <c r="I19">
-        <v>-857.4327606838428</v>
+        <v>1115477.764760088</v>
       </c>
       <c r="J19">
-        <v>1421.195285965587</v>
+        <v>4842396.499790785</v>
       </c>
       <c r="K19">
-        <v>3394.931729685584</v>
+        <v>3987473.45364605</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,22 +1113,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.85175742598575</v>
+        <v>1116436.654200666</v>
       </c>
       <c r="G20">
-        <v>73.92754960636789</v>
+        <v>4841301.965920195</v>
       </c>
       <c r="H20">
-        <v>1767.255167550774</v>
+        <v>3985933.837203966</v>
       </c>
       <c r="I20">
-        <v>-814.0002217939708</v>
+        <v>1115522.545853021</v>
       </c>
       <c r="J20">
-        <v>1362.245629547613</v>
+        <v>4842347.848199513</v>
       </c>
       <c r="K20">
-        <v>3445.532049338744</v>
+        <v>3987519.722392233</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,22 +1148,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.80392419644485</v>
+        <v>1116433.510012093</v>
       </c>
       <c r="G21">
-        <v>88.88023869844527</v>
+        <v>4841318.478724949</v>
       </c>
       <c r="H21">
-        <v>1796.628979227659</v>
+        <v>3985959.803726596</v>
       </c>
       <c r="I21">
-        <v>-769.4981965911389</v>
+        <v>1115568.429639169</v>
       </c>
       <c r="J21">
-        <v>1303.29597312964</v>
+        <v>4842299.196608242</v>
       </c>
       <c r="K21">
-        <v>3479.565530458689</v>
+        <v>3987550.842482194</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,22 +1183,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.11297551952482</v>
+        <v>1116430.733990754</v>
       </c>
       <c r="G22">
-        <v>103.8329277905227</v>
+        <v>4841334.991529703</v>
       </c>
       <c r="H22">
-        <v>1823.661634641275</v>
+        <v>3985983.700661261</v>
       </c>
       <c r="I22">
-        <v>-723.9003499587997</v>
+        <v>1115615.443271339</v>
       </c>
       <c r="J22">
-        <v>1244.346316711666</v>
+        <v>4842250.545016971</v>
       </c>
       <c r="K22">
-        <v>3497.032173045421</v>
+        <v>3987566.813915933</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,22 +1218,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.71440669447226</v>
+        <v>1116428.259592674</v>
       </c>
       <c r="G23">
-        <v>118.7856168826</v>
+        <v>4841351.504334457</v>
       </c>
       <c r="H23">
-        <v>1848.698932549914</v>
+        <v>3986005.833694927</v>
       </c>
       <c r="I23">
-        <v>-677.1796983023886</v>
+        <v>1115663.614570949</v>
       </c>
       <c r="J23">
-        <v>1185.396660293693</v>
+        <v>4842201.8934257</v>
       </c>
       <c r="K23">
-        <v>3497.931977098936</v>
+        <v>3987567.636693451</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,22 +1253,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.55891380158821</v>
+        <v>1116426.035955219</v>
       </c>
       <c r="G24">
-        <v>133.7383059746774</v>
+        <v>4841368.017139212</v>
       </c>
       <c r="H24">
-        <v>1872.015298731714</v>
+        <v>3986026.445420662</v>
       </c>
       <c r="I24">
-        <v>-629.30859358115</v>
+        <v>1115712.972044496</v>
       </c>
       <c r="J24">
-        <v>1126.447003875719</v>
+        <v>4842153.241834428</v>
       </c>
       <c r="K24">
-        <v>3482.264942619238</v>
+        <v>3987553.310814745</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,22 +1288,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.60808402137506</v>
+        <v>1116424.023451174</v>
       </c>
       <c r="G25">
-        <v>148.6909950667548</v>
+        <v>4841384.529943965</v>
       </c>
       <c r="H25">
-        <v>1893.832169798798</v>
+        <v>3986045.731588985</v>
       </c>
       <c r="I25">
-        <v>-580.2587069467593</v>
+        <v>1115763.544900421</v>
       </c>
       <c r="J25">
-        <v>1067.497347457746</v>
+        <v>4842104.590243157</v>
       </c>
       <c r="K25">
-        <v>3450.031069606324</v>
+        <v>3987523.836279818</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,22 +1323,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.83148924464292</v>
+        <v>1116422.190690463</v>
       </c>
       <c r="G26">
-        <v>163.6436841588322</v>
+        <v>4841401.042748719</v>
       </c>
       <c r="H26">
-        <v>1914.330814426611</v>
+        <v>3986063.852441854</v>
       </c>
       <c r="I26">
-        <v>-530.0010119790652</v>
+        <v>1115815.363066396</v>
       </c>
       <c r="J26">
-        <v>1008.547691039772</v>
+        <v>4842055.938651886</v>
       </c>
       <c r="K26">
-        <v>3401.230358060196</v>
+        <v>3987479.213088669</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,22 +1358,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.20467367704033</v>
+        <v>1116420.512444138</v>
       </c>
       <c r="G27">
-        <v>178.5963732509096</v>
+        <v>4841417.555553474</v>
       </c>
       <c r="H27">
-        <v>1933.661497012863</v>
+        <v>3986080.940813371</v>
       </c>
       <c r="I27">
-        <v>-478.5057675090233</v>
+        <v>1115868.457207037</v>
       </c>
       <c r="J27">
-        <v>949.5980346217985</v>
+        <v>4842007.287060614</v>
       </c>
       <c r="K27">
-        <v>3335.862807980853</v>
+        <v>3987419.441241298</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,22 +1393,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.70772794468301</v>
+        <v>1116418.968173401</v>
       </c>
       <c r="G28">
-        <v>193.549062342987</v>
+        <v>4841434.068358228</v>
       </c>
       <c r="H28">
-        <v>1951.950168562963</v>
+        <v>3986097.10804454</v>
       </c>
       <c r="I28">
-        <v>-425.7425000186631</v>
+        <v>1115922.858742045</v>
       </c>
       <c r="J28">
-        <v>890.6483782038252</v>
+        <v>4841958.635469343</v>
       </c>
       <c r="K28">
-        <v>3253.928419368296</v>
+        <v>3987344.520737704</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,22 +1428,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.32425801136921</v>
+        <v>1116417.54096593</v>
       </c>
       <c r="G29">
-        <v>208.5017514350644</v>
+        <v>4841450.581162982</v>
       </c>
       <c r="H29">
-        <v>1969.303444685863</v>
+        <v>3986112.448383822</v>
       </c>
       <c r="I29">
-        <v>-371.6799856076682</v>
+        <v>1115978.599864805</v>
       </c>
       <c r="J29">
-        <v>831.6987217858516</v>
+        <v>4841909.983878071</v>
       </c>
       <c r="K29">
-        <v>3155.427192222523</v>
+        <v>3987254.45157789</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,22 +1463,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.04062599473714</v>
+        <v>1116416.216752689</v>
       </c>
       <c r="G30">
-        <v>223.4544405271417</v>
+        <v>4841467.093967736</v>
       </c>
       <c r="H30">
-        <v>1985.812371375429</v>
+        <v>3986127.042316103</v>
       </c>
       <c r="I30">
-        <v>-316.286231515904</v>
+        <v>1116035.713561431</v>
       </c>
       <c r="J30">
-        <v>772.749065367878</v>
+        <v>4841861.3322868</v>
       </c>
       <c r="K30">
-        <v>3040.359126543535</v>
+        <v>3987149.233761852</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,22 +1498,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.84538207431435</v>
+        <v>1116414.983721878</v>
       </c>
       <c r="G31">
-        <v>238.4071296192191</v>
+        <v>4841483.60677249</v>
       </c>
       <c r="H31">
-        <v>2001.555316417095</v>
+        <v>3986140.959118702</v>
       </c>
       <c r="I31">
-        <v>-259.5284571909495</v>
+        <v>1116094.233630294</v>
       </c>
       <c r="J31">
-        <v>713.7994089499045</v>
+        <v>4841812.680695528</v>
       </c>
       <c r="K31">
-        <v>2908.724222331334</v>
+        <v>3987028.867289593</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,22 +1533,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.72883316682621</v>
+        <v>1116413.831873975</v>
       </c>
       <c r="G32">
-        <v>253.3598187112965</v>
+        <v>4841500.119577245</v>
       </c>
       <c r="H32">
-        <v>2016.600219271118</v>
+        <v>3986154.25885027</v>
       </c>
       <c r="I32">
-        <v>-201.373074889438</v>
+        <v>1116154.194702014</v>
       </c>
       <c r="J32">
-        <v>654.849752531931</v>
+        <v>4841764.029104258</v>
       </c>
       <c r="K32">
-        <v>2760.522479585917</v>
+        <v>3986893.352161111</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,22 +1568,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.68271110762932</v>
+        <v>1116412.75267942</v>
       </c>
       <c r="G33">
-        <v>268.3125078033739</v>
+        <v>4841516.632381998</v>
       </c>
       <c r="H33">
-        <v>2031.006363003271</v>
+        <v>3986166.993917184</v>
       </c>
       <c r="I33">
-        <v>-141.785669800722</v>
+        <v>1116215.632259963</v>
       </c>
       <c r="J33">
-        <v>595.9000961139576</v>
+        <v>4841715.377512987</v>
       </c>
       <c r="K33">
-        <v>2595.753898307286</v>
+        <v>3986742.688376408</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,22 +1603,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.69991431351364</v>
+        <v>1116411.738812119</v>
       </c>
       <c r="G34">
-        <v>283.2651968954513</v>
+        <v>4841533.145186752</v>
       </c>
       <c r="H34">
-        <v>2044.825785153697</v>
+        <v>3986179.210320759</v>
       </c>
       <c r="I34">
-        <v>-80.73097968110393</v>
+        <v>1116278.582661254</v>
       </c>
       <c r="J34">
-        <v>536.950439695984</v>
+        <v>4841666.725921716</v>
       </c>
       <c r="K34">
-        <v>2414.418478495439</v>
+        <v>3986576.875935482</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,22 +1638,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.77430444849453</v>
+        <v>1116410.783939676</v>
       </c>
       <c r="G35">
-        <v>298.2178859875287</v>
+        <v>4841549.657991506</v>
       </c>
       <c r="H35">
-        <v>2058.104412384791</v>
+        <v>3986190.94866028</v>
       </c>
       <c r="I35">
-        <v>-18.17287398657545</v>
+        <v>1116343.083158264</v>
       </c>
       <c r="J35">
-        <v>478.0007832780104</v>
+        <v>4841618.074330444</v>
       </c>
       <c r="K35">
-        <v>2216.516220150378</v>
+        <v>3986395.914838335</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,22 +1673,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.90054477395284</v>
+        <v>1116409.882556635</v>
       </c>
       <c r="G36">
-        <v>313.1705750796061</v>
+        <v>4841566.17079626</v>
       </c>
       <c r="H36">
-        <v>2070.8829813647</v>
+        <v>3986202.244947062</v>
       </c>
       <c r="I36">
-        <v>45.92566750827903</v>
+        <v>1116409.171920673</v>
       </c>
       <c r="J36">
-        <v>419.051126860037</v>
+        <v>4841569.422739172</v>
       </c>
       <c r="K36">
-        <v>2002.047123272102</v>
+        <v>3986199.805084965</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,22 +1708,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.07397045061712</v>
+        <v>1116409.029850681</v>
       </c>
       <c r="G37">
-        <v>328.1232641716834</v>
+        <v>4841582.683601014</v>
       </c>
       <c r="H37">
-        <v>2083.197792463832</v>
+        <v>3986213.131270723</v>
       </c>
       <c r="I37">
-        <v>111.6025766178673</v>
+        <v>1116476.888058057</v>
       </c>
       <c r="J37">
-        <v>360.1014704420634</v>
+        <v>4841520.771147901</v>
       </c>
       <c r="K37">
-        <v>1771.011187860612</v>
+        <v>3985988.546675373</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,22 +1743,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.29048358998608</v>
+        <v>1116408.221594373</v>
       </c>
       <c r="G38">
-        <v>343.0759532637608</v>
+        <v>4841599.196405768</v>
       </c>
       <c r="H38">
-        <v>2095.081331415246</v>
+        <v>3986223.636348733</v>
       </c>
       <c r="I38">
-        <v>178.8967191926314</v>
+        <v>1116546.271643025</v>
       </c>
       <c r="J38">
-        <v>301.15181402409</v>
+        <v>4841472.11955663</v>
       </c>
       <c r="K38">
-        <v>1523.408413915907</v>
+        <v>3985762.139609559</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,22 +1778,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.54646766268974</v>
+        <v>1116407.454056847</v>
       </c>
       <c r="G39">
-        <v>358.0286423558383</v>
+        <v>4841615.709210522</v>
       </c>
       <c r="H39">
-        <v>2106.562785758727</v>
+        <v>3986233.785982948</v>
       </c>
       <c r="I39">
-        <v>247.8479181188223</v>
+        <v>1116617.363734942</v>
       </c>
       <c r="J39">
-        <v>242.2021576061164</v>
+        <v>4841423.467965358</v>
       </c>
       <c r="K39">
-        <v>1259.238801437986</v>
+        <v>3985520.583887524</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,22 +1813,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.83871718260011</v>
+        <v>1116406.723931277</v>
       </c>
       <c r="G40">
-        <v>372.9813314479156</v>
+        <v>4841632.222015277</v>
       </c>
       <c r="H40">
-        <v>2117.668476740221</v>
+        <v>3986243.603441416</v>
       </c>
       <c r="I40">
-        <v>318.4969768846315</v>
+        <v>1116690.206404219</v>
       </c>
       <c r="J40">
-        <v>183.2525011881428</v>
+        <v>4841374.816374087</v>
       </c>
       <c r="K40">
-        <v>978.5023504268516</v>
+        <v>3985263.879509266</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,22 +1848,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.16437954687593</v>
+        <v>1116406.028274878</v>
       </c>
       <c r="G41">
-        <v>387.934020539993</v>
+        <v>4841648.734820031</v>
       </c>
       <c r="H41">
-        <v>2128.422222749905</v>
+        <v>3986253.109779653</v>
       </c>
       <c r="I41">
-        <v>390.8857037266053</v>
+        <v>1116764.842757212</v>
       </c>
       <c r="J41">
-        <v>124.3028447701694</v>
+        <v>4841326.164782816</v>
       </c>
       <c r="K41">
-        <v>681.1990608825026</v>
+        <v>3984992.026474786</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,22 +1883,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.52090662473143</v>
+        <v>1116405.364458962</v>
       </c>
       <c r="G42">
-        <v>402.8867096320703</v>
+        <v>4841665.247624785</v>
       </c>
       <c r="H42">
-        <v>2138.845646922095</v>
+        <v>3986262.324112564</v>
       </c>
       <c r="I42">
-        <v>465.0569363706568</v>
+        <v>1116841.316961734</v>
       </c>
       <c r="J42">
-        <v>65.3531883521958</v>
+        <v>4841277.513191545</v>
       </c>
       <c r="K42">
-        <v>367.3289328049378</v>
+        <v>3984705.024784083</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,22 +1918,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.90601422134652</v>
+        <v>1116404.730127119</v>
       </c>
       <c r="G43">
-        <v>417.8393987241478</v>
+        <v>4841681.76042954</v>
       </c>
       <c r="H43">
-        <v>2148.958438885518</v>
+        <v>3986271.263845829</v>
       </c>
       <c r="I43">
-        <v>541.0545673822845</v>
+        <v>1116919.674273188</v>
       </c>
       <c r="J43">
-        <v>6.403531934222173</v>
+        <v>4841228.861600273</v>
       </c>
       <c r="K43">
-        <v>36.89196619415853</v>
+        <v>3984402.87443716</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,22 +1953,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.31764794678356</v>
+        <v>1116404.123160012</v>
       </c>
       <c r="G44">
-        <v>432.7920878162251</v>
+        <v>4841698.273234293</v>
       </c>
       <c r="H44">
-        <v>2158.778578628096</v>
+        <v>3986279.944873802</v>
       </c>
       <c r="I44">
-        <v>618.9235701410345</v>
+        <v>1116999.961061348</v>
       </c>
       <c r="J44">
-        <v>-52.54612448375118</v>
+        <v>4841180.210009002</v>
       </c>
       <c r="K44">
-        <v>-310.1118389498345</v>
+        <v>3984085.575434014</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,22 +1988,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.75395432753208</v>
+        <v>1116403.541645571</v>
       </c>
       <c r="G45">
-        <v>447.7447769083025</v>
+        <v>4841714.786039047</v>
       </c>
       <c r="H45">
-        <v>2168.322528871739</v>
+        <v>3986288.381749571</v>
       </c>
       <c r="I45">
-        <v>698.7100254545502</v>
+        <v>1117082.224837804</v>
       </c>
       <c r="J45">
-        <v>-111.4957809017248</v>
+        <v>4841131.558417731</v>
       </c>
       <c r="K45">
-        <v>-673.6824826270433</v>
+        <v>3983753.127774646</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,22 +2023,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.21325623503925</v>
+        <v>1116402.983853646</v>
       </c>
       <c r="G46">
-        <v>462.69746600038</v>
+        <v>4841731.298843801</v>
       </c>
       <c r="H46">
-        <v>2177.605401127498</v>
+        <v>3986296.587831749</v>
       </c>
       <c r="I46">
-        <v>780.4611488279687</v>
+        <v>1117166.514284075</v>
       </c>
       <c r="J46">
-        <v>-170.4454373196984</v>
+        <v>4841082.906826459</v>
       </c>
       <c r="K46">
-        <v>-1053.819964837468</v>
+        <v>3983405.531459055</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,22 +2058,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.69403188913802</v>
+        <v>1116402.448214347</v>
       </c>
       <c r="G47">
-        <v>477.6501550924573</v>
+        <v>4841747.811648555</v>
       </c>
       <c r="H47">
-        <v>2186.641099637312</v>
+        <v>3986304.57541172</v>
       </c>
       <c r="I47">
-        <v>864.225318404803</v>
+        <v>1117252.879280414</v>
       </c>
       <c r="J47">
-        <v>-229.3950937376721</v>
+        <v>4841034.255235188</v>
       </c>
       <c r="K47">
-        <v>-1450.524285581106</v>
+        <v>3983042.786487243</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,22 +2093,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.19489683765185</v>
+        <v>1116401.933299453</v>
       </c>
       <c r="G48">
-        <v>492.6028441845347</v>
+        <v>4841764.32445331</v>
       </c>
       <c r="H48">
-        <v>2195.442446644646</v>
+        <v>3986312.35582438</v>
       </c>
       <c r="I48">
-        <v>950.0521035958436</v>
+        <v>1117341.370935335</v>
       </c>
       <c r="J48">
-        <v>-288.3447501556452</v>
+        <v>4840985.603643917</v>
       </c>
       <c r="K48">
-        <v>-1863.795444857957</v>
+        <v>3982664.892859209</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,22 +2128,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.71458842622967</v>
+        <v>1116401.437806391</v>
       </c>
       <c r="G49">
-        <v>507.5555332766122</v>
+        <v>4841780.837258063</v>
       </c>
       <c r="H49">
-        <v>2204.02129182696</v>
+        <v>3986319.939544872</v>
       </c>
       <c r="I49">
-        <v>1037.99229441302</v>
+        <v>1117432.041615847</v>
       </c>
       <c r="J49">
-        <v>-347.2944065736187</v>
+        <v>4840936.952052645</v>
       </c>
       <c r="K49">
-        <v>-2293.633442668025</v>
+        <v>3982271.850574953</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,22 +2163,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.25195236175603</v>
+        <v>1116400.960544376</v>
       </c>
       <c r="G50">
-        <v>522.5082223686895</v>
+        <v>4841797.350062817</v>
       </c>
       <c r="H50">
-        <v>2212.388608233779</v>
+        <v>3986327.336273401</v>
       </c>
       <c r="I50">
-        <v>1128.097931525577</v>
+        <v>1117524.944978451</v>
       </c>
       <c r="J50">
-        <v>-406.2440629915924</v>
+        <v>4840888.300461373</v>
       </c>
       <c r="K50">
-        <v>-2740.038279011308</v>
+        <v>3981863.659634474</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,22 +2198,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.80593104382677</v>
+        <v>1116400.500422373</v>
       </c>
       <c r="G51">
-        <v>537.4609114607669</v>
+        <v>4841813.862867572</v>
       </c>
       <c r="H51">
-        <v>2220.554576679245</v>
+        <v>3986334.55500983</v>
       </c>
       <c r="I51">
-        <v>1220.422337056364</v>
+        <v>1117620.136000889</v>
       </c>
       <c r="J51">
-        <v>-465.193719409566</v>
+        <v>4840839.648870102</v>
       </c>
       <c r="K51">
-        <v>-3203.009953887806</v>
+        <v>3981440.320037774</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,22 +2233,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.37555339580602</v>
+        <v>1116400.056438604</v>
       </c>
       <c r="G52">
-        <v>552.4136005528443</v>
+        <v>4841830.375672325</v>
       </c>
       <c r="H52">
-        <v>2228.52866021735</v>
+        <v>3986341.604119524</v>
       </c>
       <c r="I52">
-        <v>1315.020146136452</v>
+        <v>1117717.671014681</v>
       </c>
       <c r="J52">
-        <v>-524.1433758275397</v>
+        <v>4840790.997278832</v>
       </c>
       <c r="K52">
-        <v>-3682.548467297518</v>
+        <v>3981001.831784851</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,22 +2268,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.9599259729379</v>
+        <v>1116399.62767138</v>
       </c>
       <c r="G53">
-        <v>567.3662896449216</v>
+        <v>4841846.88847708</v>
       </c>
       <c r="H53">
-        <v>2236.319670066299</v>
+        <v>3986348.491391622</v>
       </c>
       <c r="I53">
-        <v>1411.947339236746</v>
+        <v>1117817.607738457</v>
       </c>
       <c r="J53">
-        <v>-583.0930322455127</v>
+        <v>4840742.345687561</v>
       </c>
       <c r="K53">
-        <v>-4178.653819240441</v>
+        <v>3980548.194875706</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,22 +2303,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.55822516223511</v>
+        <v>1116399.213271049</v>
       </c>
       <c r="G54">
-        <v>582.3189787369989</v>
+        <v>4841863.401281835</v>
       </c>
       <c r="H54">
-        <v>2243.935824133735</v>
+        <v>3986355.224090773</v>
       </c>
       <c r="I54">
-        <v>1511.261275295755</v>
+        <v>1117920.005312117</v>
       </c>
       <c r="J54">
-        <v>-642.0426886634864</v>
+        <v>4840693.694096289</v>
       </c>
       <c r="K54">
-        <v>-4691.326009716583</v>
+        <v>3980079.40931034</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2338,22 +2338,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>101.4602693231981</v>
+        <v>1116579.29084352</v>
       </c>
       <c r="G55">
-        <v>-91.06274680307622</v>
+        <v>4841122.788628204</v>
       </c>
       <c r="H55">
-        <v>959.9777779937506</v>
+        <v>3985222.982402536</v>
       </c>
       <c r="I55">
-        <v>-745.5638249787791</v>
+        <v>1114859.931496999</v>
       </c>
       <c r="J55">
-        <v>2081.691051284541</v>
+        <v>4843227.426301819</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984369.228246376</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2373,22 +2373,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>101.4602693231981</v>
+        <v>1116579.29084352</v>
       </c>
       <c r="G56">
-        <v>-91.06274680307622</v>
+        <v>4841122.788628204</v>
       </c>
       <c r="H56">
-        <v>959.9777779937506</v>
+        <v>3985222.982402536</v>
       </c>
       <c r="I56">
-        <v>-730.8444098330793</v>
+        <v>1114889.545455586</v>
       </c>
       <c r="J56">
-        <v>2031.052263354445</v>
+        <v>4843178.77467188</v>
       </c>
       <c r="K56">
-        <v>315.7289065290637</v>
+        <v>3984673.02415502</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2408,22 +2408,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>101.4602693231981</v>
+        <v>1116579.29084352</v>
       </c>
       <c r="G57">
-        <v>-91.06274680307622</v>
+        <v>4841122.788628204</v>
       </c>
       <c r="H57">
-        <v>959.9777779937506</v>
+        <v>3985222.982402536</v>
       </c>
       <c r="I57">
-        <v>-715.7625426310304</v>
+        <v>1114919.888630659</v>
       </c>
       <c r="J57">
-        <v>1980.413475424349</v>
+        <v>4843130.123041938</v>
       </c>
       <c r="K57">
-        <v>615.7141225292369</v>
+        <v>3984961.671407109</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2443,22 +2443,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>101.4602693231981</v>
+        <v>1116579.29084352</v>
       </c>
       <c r="G58">
-        <v>-91.06274680307622</v>
+        <v>4841122.788628204</v>
       </c>
       <c r="H58">
-        <v>959.9777779937506</v>
+        <v>3985222.982402536</v>
       </c>
       <c r="I58">
-        <v>-700.3092983241944</v>
+        <v>1114950.978978503</v>
       </c>
       <c r="J58">
-        <v>1929.774687494253</v>
+        <v>4843081.471411998</v>
       </c>
       <c r="K58">
-        <v>899.9556480005216</v>
+        <v>3985235.170002642</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2478,22 +2478,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>101.4602693231981</v>
+        <v>1116579.29084352</v>
       </c>
       <c r="G59">
-        <v>-91.06274680307622</v>
+        <v>4841122.788628204</v>
       </c>
       <c r="H59">
-        <v>959.9777779937506</v>
+        <v>3985222.982402536</v>
       </c>
       <c r="I59">
-        <v>-684.4755320930267</v>
+        <v>1114982.83489756</v>
       </c>
       <c r="J59">
-        <v>1879.135899564157</v>
+        <v>4843032.819782059</v>
       </c>
       <c r="K59">
-        <v>1168.453482942916</v>
+        <v>3985493.51994162</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2513,22 +2513,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>101.4602693231981</v>
+        <v>1116579.29084352</v>
       </c>
       <c r="G60">
-        <v>-91.06274680307622</v>
+        <v>4841122.788628204</v>
       </c>
       <c r="H60">
-        <v>959.9777779937506</v>
+        <v>3985222.982402536</v>
       </c>
       <c r="I60">
-        <v>-668.251873935214</v>
+        <v>1115015.475239317</v>
       </c>
       <c r="J60">
-        <v>1828.497111634061</v>
+        <v>4842984.168152118</v>
       </c>
       <c r="K60">
-        <v>1421.207627356423</v>
+        <v>3985736.721224043</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2548,22 +2548,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>101.4602693231981</v>
+        <v>1116579.29084352</v>
       </c>
       <c r="G61">
-        <v>-91.06274680307622</v>
+        <v>4841122.788628204</v>
       </c>
       <c r="H61">
-        <v>959.9777779937506</v>
+        <v>3985222.982402536</v>
       </c>
       <c r="I61">
-        <v>-651.6287231207572</v>
+        <v>1115048.91931946</v>
       </c>
       <c r="J61">
-        <v>1777.858323703965</v>
+        <v>4842935.516522177</v>
       </c>
       <c r="K61">
-        <v>1658.218081241039</v>
+        <v>3985964.773849909</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2583,22 +2583,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>101.4602693231981</v>
+        <v>1116579.29084352</v>
       </c>
       <c r="G62">
-        <v>-91.06274680307622</v>
+        <v>4841122.788628204</v>
       </c>
       <c r="H62">
-        <v>959.9777779937506</v>
+        <v>3985222.982402536</v>
       </c>
       <c r="I62">
-        <v>-634.5962425105128</v>
+        <v>1115083.18692931</v>
       </c>
       <c r="J62">
-        <v>1727.219535773869</v>
+        <v>4842886.864892238</v>
       </c>
       <c r="K62">
-        <v>1879.484844596767</v>
+        <v>3986177.677819221</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2618,22 +2618,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>101.4602693231981</v>
+        <v>1116579.29084352</v>
       </c>
       <c r="G63">
-        <v>-76.02572405820055</v>
+        <v>4841139.301441361</v>
       </c>
       <c r="H63">
-        <v>959.9777779937506</v>
+        <v>3985222.982402536</v>
       </c>
       <c r="I63">
-        <v>-617.1443527348359</v>
+        <v>1115118.298347526</v>
       </c>
       <c r="J63">
-        <v>1676.580747843773</v>
+        <v>4842838.213262297</v>
       </c>
       <c r="K63">
-        <v>2085.007917423604</v>
+        <v>3986375.433131977</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2653,22 +2653,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>78.7450049905151</v>
+        <v>1116530.610245439</v>
       </c>
       <c r="G64">
-        <v>-60.9887013133249</v>
+        <v>4841155.814254518</v>
       </c>
       <c r="H64">
-        <v>1182.686162744251</v>
+        <v>3985422.236542022</v>
       </c>
       <c r="I64">
-        <v>-599.2627262288771</v>
+        <v>1115154.274352114</v>
       </c>
       <c r="J64">
-        <v>1625.941959913677</v>
+        <v>4842789.561632358</v>
       </c>
       <c r="K64">
-        <v>2274.787299721551</v>
+        <v>3986558.039788177</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2688,22 +2688,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>65.40092671573196</v>
+        <v>1116502.012836149</v>
       </c>
       <c r="G65">
-        <v>-45.95167856844925</v>
+        <v>4841172.327067675</v>
       </c>
       <c r="H65">
-        <v>1315.342666440847</v>
+        <v>3985540.922497744</v>
       </c>
       <c r="I65">
-        <v>-580.940781121004</v>
+        <v>1115191.136232718</v>
       </c>
       <c r="J65">
-        <v>1575.303171983581</v>
+        <v>4842740.910002417</v>
       </c>
       <c r="K65">
-        <v>2448.822991490611</v>
+        <v>3986725.497787823</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2723,22 +2723,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>56.97716553757532</v>
+        <v>1116483.960053393</v>
       </c>
       <c r="G66">
-        <v>-30.91465582357358</v>
+        <v>4841188.839880832</v>
       </c>
       <c r="H66">
-        <v>1410.143303722479</v>
+        <v>3985625.739328621</v>
       </c>
       <c r="I66">
-        <v>-562.1676749707294</v>
+        <v>1115228.905803219</v>
       </c>
       <c r="J66">
-        <v>1524.664384053485</v>
+        <v>4842692.258372476</v>
       </c>
       <c r="K66">
-        <v>2607.114992730781</v>
+        <v>3986877.807130911</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2758,22 +2758,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>51.10246868598298</v>
+        <v>1116471.370115979</v>
       </c>
       <c r="G67">
-        <v>-15.87763307869792</v>
+        <v>4841205.352693989</v>
       </c>
       <c r="H67">
-        <v>1483.964509184208</v>
+        <v>3985691.786149384</v>
       </c>
       <c r="I67">
-        <v>-542.9322983524457</v>
+        <v>1115267.605414647</v>
       </c>
       <c r="J67">
-        <v>1474.025596123389</v>
+        <v>4842643.606742537</v>
       </c>
       <c r="K67">
-        <v>2749.663303442062</v>
+        <v>3987014.967817446</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2793,22 +2793,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>46.71976890759714</v>
+        <v>1116461.977645643</v>
       </c>
       <c r="G68">
-        <v>-0.840610333822266</v>
+        <v>4841221.865507146</v>
       </c>
       <c r="H68">
-        <v>1544.429802552002</v>
+        <v>3985745.883618648</v>
       </c>
       <c r="I68">
-        <v>-523.2232682811588</v>
+        <v>1115307.257968403</v>
       </c>
       <c r="J68">
-        <v>1423.386808193293</v>
+        <v>4842594.955112596</v>
       </c>
       <c r="K68">
-        <v>2876.467923624452</v>
+        <v>3987136.979847425</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2828,22 +2828,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>43.29310970677886</v>
+        <v>1116454.63404546</v>
       </c>
       <c r="G69">
-        <v>14.1964124110534</v>
+        <v>4841238.378320303</v>
       </c>
       <c r="H69">
-        <v>1595.639492282032</v>
+        <v>3985791.70022619</v>
       </c>
       <c r="I69">
-        <v>-503.0289214763415</v>
+        <v>1115347.886929815</v>
       </c>
       <c r="J69">
-        <v>1372.748020263197</v>
+        <v>4842546.303482655</v>
       </c>
       <c r="K69">
-        <v>2987.528853277954</v>
+        <v>3987243.843220848</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2863,22 +2863,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>40.52069291007924</v>
+        <v>1116448.692538207</v>
       </c>
       <c r="G70">
-        <v>29.23343515592906</v>
+        <v>4841254.89113346</v>
       </c>
       <c r="H70">
-        <v>1640.054571448384</v>
+        <v>3985831.437788785</v>
       </c>
       <c r="I70">
-        <v>-482.3373074599139</v>
+        <v>1115389.516342025</v>
       </c>
       <c r="J70">
-        <v>1322.109232333101</v>
+        <v>4842497.651852716</v>
       </c>
       <c r="K70">
-        <v>3082.846092402566</v>
+        <v>3987335.557937716</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2898,22 +2898,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>38.21859910137245</v>
+        <v>1116443.758970109</v>
       </c>
       <c r="G71">
-        <v>44.27045790080471</v>
+        <v>4841271.403946619</v>
       </c>
       <c r="H71">
-        <v>1679.268691315922</v>
+        <v>3985866.522124378</v>
       </c>
       <c r="I71">
-        <v>-461.1361814842678</v>
+        <v>1115432.170840211</v>
       </c>
       <c r="J71">
-        <v>1271.470444403005</v>
+        <v>4842449.000222775</v>
       </c>
       <c r="K71">
-        <v>3162.419640998289</v>
+        <v>3987412.123998028</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2933,22 +2933,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>36.26774780953095</v>
+        <v>1116439.578142351</v>
       </c>
       <c r="G72">
-        <v>59.30748064568039</v>
+        <v>4841287.916759775</v>
       </c>
       <c r="H72">
-        <v>1714.373219610741</v>
+        <v>3985897.929664715</v>
       </c>
       <c r="I72">
-        <v>-439.4129972861495</v>
+        <v>1115475.875666174</v>
       </c>
       <c r="J72">
-        <v>1220.831656472909</v>
+        <v>4842400.348592835</v>
       </c>
       <c r="K72">
-        <v>3226.249499065123</v>
+        <v>3987473.541401785</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2968,22 +2968,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>34.58727974737612</v>
+        <v>1116435.97676712</v>
       </c>
       <c r="G73">
-        <v>74.34450339055604</v>
+        <v>4841304.429572932</v>
       </c>
       <c r="H73">
-        <v>1746.148393107147</v>
+        <v>3985926.358476945</v>
       </c>
       <c r="I73">
-        <v>-417.1548996621155</v>
+        <v>1115520.656683269</v>
       </c>
       <c r="J73">
-        <v>1170.192868542813</v>
+        <v>4842351.696962895</v>
       </c>
       <c r="K73">
-        <v>3274.335666603066</v>
+        <v>3987519.810148987</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3003,22 +3003,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>33.1201442964156</v>
+        <v>1116432.832580455</v>
       </c>
       <c r="G74">
-        <v>89.38152613543168</v>
+        <v>4841320.94238609</v>
       </c>
       <c r="H74">
-        <v>1775.171385938516</v>
+        <v>3985952.324950854</v>
       </c>
       <c r="I74">
-        <v>-394.3487168611642</v>
+        <v>1115566.540391712</v>
       </c>
       <c r="J74">
-        <v>1119.554080612717</v>
+        <v>4842303.045332954</v>
       </c>
       <c r="K74">
-        <v>3306.678143612121</v>
+        <v>3987550.930239633</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3038,22 +3038,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>31.82480235895028</v>
+        <v>1116430.056560801</v>
       </c>
       <c r="G75">
-        <v>104.4185488803074</v>
+        <v>4841337.455199246</v>
       </c>
       <c r="H75">
-        <v>1801.881183526673</v>
+        <v>3985976.221840682</v>
       </c>
       <c r="I75">
-        <v>-370.9809527900427</v>
+        <v>1115613.553944262</v>
       </c>
       <c r="J75">
-        <v>1068.915292682621</v>
+        <v>4842254.393703015</v>
       </c>
       <c r="K75">
-        <v>3323.276930092287</v>
+        <v>3987566.901673723</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3073,22 +3073,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>30.67020330782915</v>
+        <v>1116427.582164222</v>
       </c>
       <c r="G76">
-        <v>119.455571625183</v>
+        <v>4841353.968012404</v>
       </c>
       <c r="H76">
-        <v>1826.619454668075</v>
+        <v>3985998.35483282</v>
       </c>
       <c r="I76">
-        <v>-347.0377790266186</v>
+        <v>1115661.725162294</v>
       </c>
       <c r="J76">
-        <v>1018.276504752525</v>
+        <v>4842205.742073075</v>
       </c>
       <c r="K76">
-        <v>3324.132026043563</v>
+        <v>3987567.724451259</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3108,22 +3108,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>29.63261371572408</v>
+        <v>1116425.358528117</v>
       </c>
       <c r="G77">
-        <v>134.4925943700587</v>
+        <v>4841370.480825561</v>
       </c>
       <c r="H77">
-        <v>1849.657347604539</v>
+        <v>3986018.966519882</v>
       </c>
       <c r="I77">
-        <v>-322.5050266365863</v>
+        <v>1115711.082552252</v>
       </c>
       <c r="J77">
-        <v>967.6377168224293</v>
+        <v>4842157.090443133</v>
       </c>
       <c r="K77">
-        <v>3309.243431465949</v>
+        <v>3987553.398572238</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3143,22 +3143,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>28.69354280410094</v>
+        <v>1116423.346025293</v>
       </c>
       <c r="G78">
-        <v>149.5296171149344</v>
+        <v>4841386.993638718</v>
       </c>
       <c r="H78">
-        <v>1871.213654274849</v>
+        <v>3986038.252652018</v>
       </c>
       <c r="I78">
-        <v>-297.3681777886675</v>
+        <v>1115761.65532253</v>
       </c>
       <c r="J78">
-        <v>916.9989288923334</v>
+        <v>4842108.438813194</v>
       </c>
       <c r="K78">
-        <v>3278.611146359447</v>
+        <v>3987523.924036662</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3178,22 +3178,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>27.83834339434596</v>
+        <v>1116421.513265694</v>
       </c>
       <c r="G79">
-        <v>164.56663985981</v>
+        <v>4841403.506451875</v>
       </c>
       <c r="H79">
-        <v>1891.467478416914</v>
+        <v>3986056.373470888</v>
       </c>
       <c r="I79">
-        <v>-271.6123571633457</v>
+        <v>1115813.473400749</v>
       </c>
       <c r="J79">
-        <v>866.3601409622373</v>
+        <v>4842059.787183253</v>
       </c>
       <c r="K79">
-        <v>3232.235170724055</v>
+        <v>3987479.300844531</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3213,22 +3213,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>27.05524320097883</v>
+        <v>1116419.835020386</v>
       </c>
       <c r="G80">
-        <v>179.6036626046856</v>
+        <v>4841420.019265032</v>
       </c>
       <c r="H80">
-        <v>1910.567289782824</v>
+        <v>3986073.461810342</v>
       </c>
       <c r="I80">
-        <v>-245.222323150046</v>
+        <v>1115866.567451474</v>
       </c>
       <c r="J80">
-        <v>815.7213530321412</v>
+        <v>4842011.135553312</v>
       </c>
       <c r="K80">
-        <v>3170.115504559774</v>
+        <v>3987419.528995845</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3248,22 +3248,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>26.33465844889372</v>
+        <v>1116418.290750587</v>
       </c>
       <c r="G81">
-        <v>194.6406853495613</v>
+        <v>4841436.53207819</v>
       </c>
       <c r="H81">
-        <v>1928.637535113344</v>
+        <v>3986089.629011176</v>
       </c>
       <c r="I81">
-        <v>-218.1824588275549</v>
+        <v>1115920.968894352</v>
       </c>
       <c r="J81">
-        <v>765.0825651020454</v>
+        <v>4841962.483923373</v>
       </c>
       <c r="K81">
-        <v>3092.252147866604</v>
+        <v>3987344.608490603</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3283,22 +3283,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>25.66869754104955</v>
+        <v>1116416.863543981</v>
       </c>
       <c r="G82">
-        <v>209.677708094437</v>
+        <v>4841453.044891347</v>
       </c>
       <c r="H82">
-        <v>1945.783556680303</v>
+        <v>3986104.969321676</v>
       </c>
       <c r="I82">
-        <v>-190.4767627223413</v>
+        <v>1115976.709922712</v>
       </c>
       <c r="J82">
-        <v>714.4437771719494</v>
+        <v>4841913.832293432</v>
       </c>
       <c r="K82">
-        <v>2998.645100644543</v>
+        <v>3987254.539328805</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3318,22 +3318,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>25.0507956101514</v>
+        <v>1116415.539331544</v>
       </c>
       <c r="G83">
-        <v>224.7147308393126</v>
+        <v>4841469.557704504</v>
       </c>
       <c r="H83">
-        <v>1962.095313092288</v>
+        <v>3986119.563226575</v>
       </c>
       <c r="I83">
-        <v>-162.0888393393099</v>
+        <v>1116033.823522615</v>
       </c>
       <c r="J83">
-        <v>663.8049892418533</v>
+        <v>4841865.180663493</v>
       </c>
       <c r="K83">
-        <v>2889.294362893594</v>
+        <v>3987149.321510452</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3353,22 +3353,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>24.47544105623394</v>
+        <v>1116414.306301482</v>
       </c>
       <c r="G84">
-        <v>239.7517535841883</v>
+        <v>4841486.070517661</v>
       </c>
       <c r="H84">
-        <v>1977.650236168493</v>
+        <v>3986133.480003062</v>
       </c>
       <c r="I84">
-        <v>-133.0018894593821</v>
+        <v>1116092.343492372</v>
       </c>
       <c r="J84">
-        <v>613.1662013117574</v>
+        <v>4841816.529033552</v>
       </c>
       <c r="K84">
-        <v>2764.199934613755</v>
+        <v>3987028.955035544</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3388,22 +3388,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>23.93796791989904</v>
+        <v>1116413.154454277</v>
       </c>
       <c r="G85">
-        <v>254.788776329064</v>
+        <v>4841502.583330818</v>
       </c>
       <c r="H85">
-        <v>1992.515453951058</v>
+        <v>3986146.779709676</v>
       </c>
       <c r="I85">
-        <v>-103.1987001981642</v>
+        <v>1116152.304462546</v>
       </c>
       <c r="J85">
-        <v>562.5274133816613</v>
+        <v>4841767.877403611</v>
       </c>
       <c r="K85">
-        <v>2623.361815805027</v>
+        <v>3986893.43990408</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3423,22 +3423,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>23.43439615481569</v>
+        <v>1116412.075260377</v>
       </c>
       <c r="G86">
-        <v>269.8257990739396</v>
+        <v>4841519.096143975</v>
       </c>
       <c r="H86">
-        <v>2006.74954147314</v>
+        <v>3986159.514752695</v>
       </c>
       <c r="I86">
-        <v>-72.66163481982008</v>
+        <v>1116213.741916449</v>
       </c>
       <c r="J86">
-        <v>511.8886254515655</v>
+        <v>4841719.225773672</v>
       </c>
       <c r="K86">
-        <v>2466.78000646741</v>
+        <v>3986742.776116061</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3458,22 +3458,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>22.96130727194573</v>
+        <v>1116411.061393691</v>
       </c>
       <c r="G87">
-        <v>284.8628218188153</v>
+        <v>4841535.608957132</v>
       </c>
       <c r="H87">
-        <v>2020.403914777409</v>
+        <v>3986171.731133349</v>
       </c>
       <c r="I87">
-        <v>-41.37262230011918</v>
+        <v>1116276.692211132</v>
       </c>
       <c r="J87">
-        <v>461.2498375214694</v>
+        <v>4841670.574143732</v>
       </c>
       <c r="K87">
-        <v>2294.454506600903</v>
+        <v>3986576.963671486</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3493,22 +3493,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>22.51574646055812</v>
+        <v>1116410.106521828</v>
       </c>
       <c r="G88">
-        <v>299.899844563691</v>
+        <v>4841552.121770289</v>
       </c>
       <c r="H88">
-        <v>2033.52395201254</v>
+        <v>3986183.469450845</v>
       </c>
       <c r="I88">
-        <v>-9.313146632484496</v>
+        <v>1116341.192598908</v>
       </c>
       <c r="J88">
-        <v>410.6110495913733</v>
+        <v>4841621.92251379</v>
       </c>
       <c r="K88">
-        <v>2106.385316205507</v>
+        <v>3986396.002570356</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3528,22 +3528,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>22.09514477483763</v>
+        <v>1116409.205139334</v>
       </c>
       <c r="G89">
-        <v>314.9368673085666</v>
+        <v>4841568.634583446</v>
       </c>
       <c r="H89">
-        <v>2046.149903318373</v>
+        <v>3986194.765716433</v>
       </c>
       <c r="I89">
-        <v>23.53576412928899</v>
+        <v>1116407.281249394</v>
       </c>
       <c r="J89">
-        <v>359.9722616612775</v>
+        <v>4841573.270883851</v>
       </c>
       <c r="K89">
-        <v>1902.572435281221</v>
+        <v>3986199.89281267</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3563,22 +3563,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>21.69725670115119</v>
+        <v>1116408.352433897</v>
       </c>
       <c r="G90">
-        <v>329.9738900534422</v>
+        <v>4841585.147396605</v>
       </c>
       <c r="H90">
-        <v>2058.31763552083</v>
+        <v>3986205.652019668</v>
       </c>
       <c r="I90">
-        <v>57.19354909812733</v>
+        <v>1116474.997272098</v>
       </c>
       <c r="J90">
-        <v>309.3334737311814</v>
+        <v>4841524.619253911</v>
       </c>
       <c r="K90">
-        <v>1683.015863828047</v>
+        <v>3985988.634398429</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3598,22 +3598,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>21.32010963895228</v>
+        <v>1116407.544178079</v>
       </c>
       <c r="G91">
-        <v>345.0109127983179</v>
+        <v>4841601.660209761</v>
       </c>
       <c r="H91">
-        <v>2070.059246367664</v>
+        <v>3986216.157077967</v>
       </c>
       <c r="I91">
-        <v>91.68012605722923</v>
+        <v>1116544.380739564</v>
       </c>
       <c r="J91">
-        <v>258.6946858010855</v>
+        <v>4841475.96762397</v>
       </c>
       <c r="K91">
-        <v>1447.715601845983</v>
+        <v>3985762.227327633</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3633,22 +3633,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>20.96196269953455</v>
+        <v>1116406.776641019</v>
       </c>
       <c r="G92">
-        <v>360.0479355431936</v>
+        <v>4841618.173022918</v>
       </c>
       <c r="H92">
-        <v>2081.403574804506</v>
+        <v>3986226.306693139</v>
       </c>
       <c r="I92">
-        <v>127.0159032468796</v>
+        <v>1116615.472711084</v>
       </c>
       <c r="J92">
-        <v>208.0558978709894</v>
+        <v>4841427.31599403</v>
       </c>
       <c r="K92">
-        <v>1196.671649335029</v>
+        <v>3985520.67160028</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3668,22 +3668,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>20.6212728580729</v>
+        <v>1116406.046515892</v>
       </c>
       <c r="G93">
-        <v>375.0849582880692</v>
+        <v>4841634.685836076</v>
       </c>
       <c r="H93">
-        <v>2092.37662771602</v>
+        <v>3986236.124133187</v>
       </c>
       <c r="I93">
-        <v>163.2217914415065</v>
+        <v>1116688.315257</v>
       </c>
       <c r="J93">
-        <v>157.4171099408933</v>
+        <v>4841378.664364089</v>
       </c>
       <c r="K93">
-        <v>929.8840062951857</v>
+        <v>3985263.967216373</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3703,22 +3703,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>20.29666695716642</v>
+        <v>1116405.350859916</v>
       </c>
       <c r="G94">
-        <v>390.1219810329449</v>
+        <v>4841651.198649232</v>
       </c>
       <c r="H94">
-        <v>2103.001939023337</v>
+        <v>3986245.630453587</v>
       </c>
       <c r="I94">
-        <v>200.3192163241192</v>
+        <v>1116762.951483594</v>
       </c>
       <c r="J94">
-        <v>106.7783220107975</v>
+        <v>4841330.01273415</v>
       </c>
       <c r="K94">
-        <v>647.3526727264539</v>
+        <v>3984992.114175911</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3738,22 +3738,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>19.98691840312445</v>
+        <v>1116404.687044402</v>
       </c>
       <c r="G95">
-        <v>405.1590037778205</v>
+        <v>4841667.71146239</v>
       </c>
       <c r="H95">
-        <v>2113.300873610224</v>
+        <v>3986254.844769209</v>
       </c>
       <c r="I95">
-        <v>238.3301311654619</v>
+        <v>1116839.425558605</v>
       </c>
       <c r="J95">
-        <v>56.1395340807014</v>
+        <v>4841281.36110421</v>
       </c>
       <c r="K95">
-        <v>349.0776486288319</v>
+        <v>3984705.112478892</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3773,22 +3773,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>19.69092765310949</v>
+        <v>1116404.052712944</v>
       </c>
       <c r="G96">
-        <v>420.1960265226963</v>
+        <v>4841684.224275547</v>
       </c>
       <c r="H96">
-        <v>2123.292885947204</v>
+        <v>3986263.784485701</v>
       </c>
       <c r="I96">
-        <v>277.277029815372</v>
+        <v>1116917.782737358</v>
       </c>
       <c r="J96">
-        <v>5.50074615060532</v>
+        <v>4841232.709474268</v>
       </c>
       <c r="K96">
-        <v>35.05893400232071</v>
+        <v>3984402.962125319</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3808,22 +3808,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>19.40770578545798</v>
+        <v>1116403.445746206</v>
       </c>
       <c r="G97">
-        <v>435.2330492675719</v>
+        <v>4841700.737088704</v>
       </c>
       <c r="H97">
-        <v>2132.995741282664</v>
+        <v>3986272.465497386</v>
       </c>
       <c r="I97">
-        <v>317.1829600140459</v>
+        <v>1116998.06938955</v>
       </c>
       <c r="J97">
-        <v>-45.13804177949053</v>
+        <v>4841184.057844329</v>
       </c>
       <c r="K97">
-        <v>-294.7034711530789</v>
+        <v>3984085.663115189</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3843,22 +3843,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>19.13636059364489</v>
+        <v>1116402.864232118</v>
       </c>
       <c r="G98">
-        <v>450.2700720124475</v>
+        <v>4841717.249901861</v>
       </c>
       <c r="H98">
-        <v>2142.425705720073</v>
+        <v>3986280.902357324</v>
       </c>
       <c r="I98">
-        <v>358.0715370310799</v>
+        <v>1117080.333026691</v>
       </c>
       <c r="J98">
-        <v>-95.77682970958661</v>
+        <v>4841135.406214389</v>
       </c>
       <c r="K98">
-        <v>-640.2095668373688</v>
+        <v>3983753.215448505</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3878,22 +3878,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>18.87608475831566</v>
+        <v>1116402.306440531</v>
       </c>
       <c r="G99">
-        <v>465.3070947573232</v>
+        <v>4841733.762715018</v>
       </c>
       <c r="H99">
-        <v>2151.597710289893</v>
+        <v>3986289.108424106</v>
       </c>
       <c r="I99">
-        <v>399.9669576403575</v>
+        <v>1117164.622330214</v>
       </c>
       <c r="J99">
-        <v>-146.4156176396827</v>
+        <v>4841086.754584447</v>
       </c>
       <c r="K99">
-        <v>-1001.459353050549</v>
+        <v>3983405.619125265</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3913,22 +3913,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>18.62614574016661</v>
+        <v>1116401.770801557</v>
       </c>
       <c r="G100">
-        <v>480.3441175021989</v>
+        <v>4841750.275528176</v>
       </c>
       <c r="H100">
-        <v>2160.525493172191</v>
+        <v>3986297.09598909</v>
       </c>
       <c r="I100">
-        <v>442.8940144390582</v>
+        <v>1117250.987180292</v>
       </c>
       <c r="J100">
-        <v>-197.0544055697788</v>
+        <v>4841038.102954508</v>
       </c>
       <c r="K100">
-        <v>-1378.452829792618</v>
+        <v>3983042.874145469</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3948,22 +3948,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>18.38587710546751</v>
+        <v>1116401.255886975</v>
       </c>
       <c r="G101">
-        <v>495.3811402470745</v>
+        <v>4841766.788341333</v>
       </c>
       <c r="H101">
-        <v>2169.221723471143</v>
+        <v>3986304.876387151</v>
       </c>
       <c r="I101">
-        <v>486.8781105192586</v>
+        <v>1117339.47868535</v>
       </c>
       <c r="J101">
-        <v>-247.6931934998744</v>
+        <v>4840989.451324568</v>
       </c>
       <c r="K101">
-        <v>-1771.189997063573</v>
+        <v>3982664.980509118</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3983,22 +3983,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>18.1546710503061</v>
+        <v>1116400.760394214</v>
       </c>
       <c r="G102">
-        <v>510.4181629919502</v>
+        <v>4841783.30115449</v>
       </c>
       <c r="H102">
-        <v>2177.698109340521</v>
+        <v>3986312.460093415</v>
       </c>
       <c r="I102">
-        <v>531.945274500808</v>
+        <v>1117430.149212308</v>
       </c>
       <c r="J102">
-        <v>-298.3319814299705</v>
+        <v>4840940.799694628</v>
       </c>
       <c r="K102">
-        <v>-2179.67085486342</v>
+        <v>3982271.938216212</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4018,22 +4018,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>17.93197193261704</v>
+        <v>1116400.283132489</v>
       </c>
       <c r="G103">
-        <v>525.4551857368258</v>
+        <v>4841799.813967647</v>
       </c>
       <c r="H103">
-        <v>2185.96549277595</v>
+        <v>3986319.856808065</v>
       </c>
       <c r="I103">
-        <v>578.1221759343722</v>
+        <v>1117523.052417578</v>
       </c>
       <c r="J103">
-        <v>-348.9707693600666</v>
+        <v>4840892.148064687</v>
       </c>
       <c r="K103">
-        <v>-2603.895403192158</v>
+        <v>3981863.74726675</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4053,22 +4053,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>17.71727065530446</v>
+        <v>1116399.823010765</v>
       </c>
       <c r="G104">
-        <v>540.4922084817015</v>
+        <v>4841816.326780804</v>
       </c>
       <c r="H104">
-        <v>2194.03393299954</v>
+        <v>3986327.07553095</v>
       </c>
       <c r="I104">
-        <v>625.4361410837674</v>
+        <v>1117618.243278808</v>
       </c>
       <c r="J104">
-        <v>-399.6095572901626</v>
+        <v>4840843.496434747</v>
       </c>
       <c r="K104">
-        <v>-3043.863642049784</v>
+        <v>3981440.407660733</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4088,22 +4088,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>17.51009977121794</v>
+        <v>1116399.379027265</v>
       </c>
       <c r="G105">
-        <v>555.5292312265772</v>
+        <v>4841832.839593961</v>
       </c>
       <c r="H105">
-        <v>2201.912780045641</v>
+        <v>3986334.124627418</v>
       </c>
       <c r="I105">
-        <v>673.9151690969173</v>
+        <v>1117715.778127421</v>
       </c>
       <c r="J105">
-        <v>-450.2483452202587</v>
+        <v>4840794.844804807</v>
       </c>
       <c r="K105">
-        <v>-3499.575571436299</v>
+        <v>3981001.91939816</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4123,22 +4123,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>17.31002920286436</v>
+        <v>1116398.950260301</v>
       </c>
       <c r="G106">
-        <v>570.5662539714529</v>
+        <v>4841849.352407118</v>
       </c>
       <c r="H106">
-        <v>2209.610739897855</v>
+        <v>3986341.011886593</v>
       </c>
       <c r="I106">
-        <v>723.587948575002</v>
+        <v>1117815.714681952</v>
       </c>
       <c r="J106">
-        <v>-500.8871331503543</v>
+        <v>4840746.193174867</v>
       </c>
       <c r="K106">
-        <v>-3971.031191351701</v>
+        <v>3980548.282479032</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4158,22 +4158,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>17.11666248766833</v>
+        <v>1116398.535860222</v>
       </c>
       <c r="G107">
-        <v>585.6032767163284</v>
+        <v>4841865.865220276</v>
       </c>
       <c r="H107">
-        <v>2217.135932315281</v>
+        <v>3986347.744573112</v>
       </c>
       <c r="I107">
-        <v>774.4838745496161</v>
+        <v>1117918.112082197</v>
       </c>
       <c r="J107">
-        <v>-551.5259210804504</v>
+        <v>4840697.541544925</v>
       </c>
       <c r="K107">
-        <v>-4458.230501795995</v>
+        <v>3980079.496903348</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4181,34 +4181,34 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>185.352916323173</v>
+        <v>1116579.827489801</v>
       </c>
       <c r="G108">
-        <v>-96.54327037061108</v>
+        <v>4841125.230639234</v>
       </c>
       <c r="H108">
-        <v>831.5076614004498</v>
+        <v>3985231.200874473</v>
       </c>
       <c r="I108">
-        <v>-1454.239472177047</v>
+        <v>1114860.535018993</v>
       </c>
       <c r="J108">
-        <v>1592.909774912656</v>
+        <v>4843221.902314338</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984375.506448033</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4216,34 +4216,34 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>185.352916323173</v>
+        <v>1116579.827489801</v>
       </c>
       <c r="G109">
-        <v>-96.54327037061108</v>
+        <v>4841125.230639234</v>
       </c>
       <c r="H109">
-        <v>831.5076614004498</v>
+        <v>3985231.200874473</v>
       </c>
       <c r="I109">
-        <v>-1425.528912738562</v>
+        <v>1114890.148993611</v>
       </c>
       <c r="J109">
-        <v>1554.160979680143</v>
+        <v>4843173.250739888</v>
       </c>
       <c r="K109">
-        <v>260.2577434137979</v>
+        <v>3984679.30283537</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4251,34 +4251,34 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>185.352916323173</v>
+        <v>1116579.827489801</v>
       </c>
       <c r="G110">
-        <v>-96.54327037061108</v>
+        <v>4841125.230639234</v>
       </c>
       <c r="H110">
-        <v>831.5076614004498</v>
+        <v>3985231.200874473</v>
       </c>
       <c r="I110">
-        <v>-1396.111382187135</v>
+        <v>1114920.49218511</v>
       </c>
       <c r="J110">
-        <v>1515.412184447631</v>
+        <v>4843124.599165438</v>
       </c>
       <c r="K110">
-        <v>507.5378427623157</v>
+        <v>3984967.950542283</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4286,34 +4286,34 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>185.352916323173</v>
+        <v>1116579.827489801</v>
       </c>
       <c r="G111">
-        <v>-96.54327037061108</v>
+        <v>4841125.230639234</v>
       </c>
       <c r="H111">
-        <v>831.5076614004498</v>
+        <v>3985231.200874473</v>
       </c>
       <c r="I111">
-        <v>-1365.969472009511</v>
+        <v>1114951.582549785</v>
       </c>
       <c r="J111">
-        <v>1476.663389215118</v>
+        <v>4843075.947590987</v>
       </c>
       <c r="K111">
-        <v>741.8402980455554</v>
+        <v>3985241.449568769</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4321,34 +4321,34 @@
         <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>185.352916323173</v>
+        <v>1116579.827489801</v>
       </c>
       <c r="G112">
-        <v>-96.54327037061108</v>
+        <v>4841125.230639234</v>
       </c>
       <c r="H112">
-        <v>831.5076614004498</v>
+        <v>3985231.200874473</v>
       </c>
       <c r="I112">
-        <v>-1335.085345023812</v>
+        <v>1114983.438486086</v>
       </c>
       <c r="J112">
-        <v>1437.914593982605</v>
+        <v>4843027.296016538</v>
       </c>
       <c r="K112">
-        <v>963.1651092635153</v>
+        <v>3985499.799914831</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4356,34 +4356,34 @@
         <v>42</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>185.352916323173</v>
+        <v>1116579.827489801</v>
       </c>
       <c r="G113">
-        <v>-96.54327037061108</v>
+        <v>4841125.230639234</v>
       </c>
       <c r="H113">
-        <v>831.5076614004498</v>
+        <v>3985231.200874473</v>
       </c>
       <c r="I113">
-        <v>-1303.440724823966</v>
+        <v>1115016.078845513</v>
       </c>
       <c r="J113">
-        <v>1399.165798750092</v>
+        <v>4842978.644442087</v>
       </c>
       <c r="K113">
-        <v>1171.512276416197</v>
+        <v>3985743.001580468</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4391,34 +4391,34 @@
         <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>185.352916323173</v>
+        <v>1116579.827489801</v>
       </c>
       <c r="G114">
-        <v>-96.54327037061108</v>
+        <v>4841125.230639234</v>
       </c>
       <c r="H114">
-        <v>831.5076614004498</v>
+        <v>3985231.200874473</v>
       </c>
       <c r="I114">
-        <v>-1271.016884964215</v>
+        <v>1115049.522943761</v>
       </c>
       <c r="J114">
-        <v>1360.417003517579</v>
+        <v>4842929.992867636</v>
       </c>
       <c r="K114">
-        <v>1366.8817995036</v>
+        <v>3985971.054565679</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4426,34 +4426,34 @@
         <v>42</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>185.352916323173</v>
+        <v>1116579.827489801</v>
       </c>
       <c r="G115">
-        <v>-96.54327037061108</v>
+        <v>4841125.230639234</v>
       </c>
       <c r="H115">
-        <v>831.5076614004498</v>
+        <v>3985231.200874473</v>
       </c>
       <c r="I115">
-        <v>-1237.794637877304</v>
+        <v>1115083.790572161</v>
       </c>
       <c r="J115">
-        <v>1321.668208285067</v>
+        <v>4842881.341293187</v>
       </c>
       <c r="K115">
-        <v>1549.273678525724</v>
+        <v>3986183.958870465</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4461,34 +4461,34 @@
         <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>185.352916323173</v>
+        <v>1116579.827489801</v>
       </c>
       <c r="G116">
-        <v>-80.6012589181461</v>
+        <v>4841141.743460721</v>
       </c>
       <c r="H116">
-        <v>831.5076614004498</v>
+        <v>3985231.200874473</v>
       </c>
       <c r="I116">
-        <v>-1203.754323519784</v>
+        <v>1115118.902009385</v>
       </c>
       <c r="J116">
-        <v>1282.919413052554</v>
+        <v>4842832.689718736</v>
       </c>
       <c r="K116">
-        <v>1718.687913482568</v>
+        <v>3986381.714494825</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4496,34 +4496,34 @@
         <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>143.8554856816018</v>
+        <v>1116531.146868323</v>
       </c>
       <c r="G117">
-        <v>-64.65924746568112</v>
+        <v>4841158.256282208</v>
       </c>
       <c r="H117">
-        <v>1024.411843583889</v>
+        <v>3985430.455424868</v>
       </c>
       <c r="I117">
-        <v>-1168.875797737725</v>
+        <v>1115154.878033448</v>
       </c>
       <c r="J117">
-        <v>1244.170617820041</v>
+        <v>4842784.038144287</v>
       </c>
       <c r="K117">
-        <v>1875.124504374133</v>
+        <v>3986564.32143876</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4531,34 +4531,34 @@
         <v>42</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>119.4778269155193</v>
+        <v>1116502.549445289</v>
       </c>
       <c r="G118">
-        <v>-48.71723601321617</v>
+        <v>4841174.769103695</v>
       </c>
       <c r="H118">
-        <v>1139.315439986758</v>
+        <v>3985549.141625348</v>
       </c>
       <c r="I118">
-        <v>-1133.138420345939</v>
+        <v>1115191.739934007</v>
       </c>
       <c r="J118">
-        <v>1205.421822587528</v>
+        <v>4842735.386569836</v>
       </c>
       <c r="K118">
-        <v>2018.58345120042</v>
+        <v>3986731.779702271</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4566,34 +4566,34 @@
         <v>42</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>104.0888602668347</v>
+        <v>1116484.496653856</v>
       </c>
       <c r="G119">
-        <v>-32.77522456075119</v>
+        <v>4841191.281925182</v>
       </c>
       <c r="H119">
-        <v>1221.429274298697</v>
+        <v>3985633.958631138</v>
       </c>
       <c r="I119">
-        <v>-1096.521042913664</v>
+        <v>1115229.509524955</v>
       </c>
       <c r="J119">
-        <v>1166.673027355016</v>
+        <v>4842686.734995386</v>
       </c>
       <c r="K119">
-        <v>2149.064753961428</v>
+        <v>3986884.089285355</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4601,34 +4601,34 @@
         <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>93.35665739352494</v>
+        <v>1116471.906710392</v>
       </c>
       <c r="G120">
-        <v>-16.83321310828621</v>
+        <v>4841207.794746668</v>
       </c>
       <c r="H120">
-        <v>1285.371273084885</v>
+        <v>3985700.005588105</v>
       </c>
       <c r="I120">
-        <v>-1059.001996249489</v>
+        <v>1115268.209157332</v>
       </c>
       <c r="J120">
-        <v>1127.924232122503</v>
+        <v>4842638.083420936</v>
       </c>
       <c r="K120">
-        <v>2266.568412657157</v>
+        <v>3987021.250188014</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4636,34 +4636,34 @@
         <v>42</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>85.3501126572298</v>
+        <v>1116462.514235542</v>
       </c>
       <c r="G121">
-        <v>-0.8912016558212488</v>
+        <v>4841224.307568154</v>
       </c>
       <c r="H121">
-        <v>1337.744729884293</v>
+        <v>3985754.10316893</v>
       </c>
       <c r="I121">
-        <v>-1020.559077578098</v>
+        <v>1115307.861732553</v>
       </c>
       <c r="J121">
-        <v>1089.17543688999</v>
+        <v>4842589.431846486</v>
       </c>
       <c r="K121">
-        <v>2371.094427287606</v>
+        <v>3987143.262410249</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4671,34 +4671,34 @@
         <v>42</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>79.09011275427191</v>
+        <v>1116455.170631829</v>
       </c>
       <c r="G122">
-        <v>15.05080979664373</v>
+        <v>4841240.820389641</v>
       </c>
       <c r="H122">
-        <v>1382.10122471634</v>
+        <v>3985799.919870958</v>
       </c>
       <c r="I122">
-        <v>-981.1695374012618</v>
+        <v>1115348.49071596</v>
       </c>
       <c r="J122">
-        <v>1050.426641657477</v>
+        <v>4842540.780272035</v>
       </c>
       <c r="K122">
-        <v>2462.642797852777</v>
+        <v>3987250.125952058</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4706,34 +4706,34 @@
         <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>74.02531702724016</v>
+        <v>1116449.22912172</v>
       </c>
       <c r="G123">
-        <v>30.9928212491087</v>
+        <v>4841257.333211128</v>
       </c>
       <c r="H123">
-        <v>1420.572405461495</v>
+        <v>3985839.657515501</v>
       </c>
       <c r="I123">
-        <v>-940.8100660352827</v>
+        <v>1115390.120150706</v>
       </c>
       <c r="J123">
-        <v>1011.677846424965</v>
+        <v>4842492.128697585</v>
       </c>
       <c r="K123">
-        <v>2541.213524352668</v>
+        <v>3987341.840813441</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4741,34 +4741,34 @@
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>69.81973188598563</v>
+        <v>1116444.295551251</v>
       </c>
       <c r="G124">
-        <v>46.93483270157367</v>
+        <v>4841273.846032615</v>
       </c>
       <c r="H124">
-        <v>1454.538651193847</v>
+        <v>3985874.741923446</v>
       </c>
       <c r="I124">
-        <v>-899.4567798169496</v>
+        <v>1115432.774671983</v>
       </c>
       <c r="J124">
-        <v>972.9290511924518</v>
+        <v>4842443.477123136</v>
       </c>
       <c r="K124">
-        <v>2606.806606787281</v>
+        <v>3987418.406994399</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4776,34 +4776,34 @@
         <v>42</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>66.25581490973752</v>
+        <v>1116440.114721484</v>
       </c>
       <c r="G125">
-        <v>62.87684415403866</v>
+        <v>4841290.358854101</v>
       </c>
       <c r="H125">
-        <v>1484.945276113847</v>
+        <v>3985906.149528553</v>
       </c>
       <c r="I125">
-        <v>-857.0852069698154</v>
+        <v>1115476.479521605</v>
       </c>
       <c r="J125">
-        <v>934.1802559599389</v>
+        <v>4842394.825548685</v>
       </c>
       <c r="K125">
-        <v>2659.422045156615</v>
+        <v>3987479.824494932</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4811,34 +4811,34 @@
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>63.18584813174543</v>
+        <v>1116436.513344522</v>
       </c>
       <c r="G126">
-        <v>78.81885560650362</v>
+        <v>4841306.871675588</v>
       </c>
       <c r="H126">
-        <v>1512.468100923196</v>
+        <v>3985934.578399409</v>
       </c>
       <c r="I126">
-        <v>-813.6702731224527</v>
+        <v>1115521.260562942</v>
       </c>
       <c r="J126">
-        <v>895.4314607274263</v>
+        <v>4842346.173974235</v>
       </c>
       <c r="K126">
-        <v>2699.05983946067</v>
+        <v>3987526.093315039</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4846,34 +4846,34 @@
         <v>42</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>60.50560850405039</v>
+        <v>1116433.369156345</v>
       </c>
       <c r="G127">
-        <v>94.76086705896859</v>
+        <v>4841323.384497075</v>
       </c>
       <c r="H127">
-        <v>1537.60705877125</v>
+        <v>3985960.544926868</v>
       </c>
       <c r="I127">
-        <v>-769.1862864701059</v>
+        <v>1115567.144296223</v>
       </c>
       <c r="J127">
-        <v>856.6826654949134</v>
+        <v>4842297.522399784</v>
       </c>
       <c r="K127">
-        <v>2725.719989699446</v>
+        <v>3987557.213454721</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4881,34 +4881,34 @@
         <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>58.13921023459486</v>
+        <v>1116430.593135357</v>
       </c>
       <c r="G128">
-        <v>110.7028785114336</v>
+        <v>4841339.897318562</v>
       </c>
       <c r="H128">
-        <v>1560.742387357108</v>
+        <v>3985984.441865977</v>
       </c>
       <c r="I128">
-        <v>-723.6069225709618</v>
+        <v>1115614.157874225</v>
       </c>
       <c r="J128">
-        <v>817.9338702624008</v>
+        <v>4842248.870825334</v>
       </c>
       <c r="K128">
-        <v>2739.402495872943</v>
+        <v>3987573.184913978</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4916,34 +4916,34 @@
         <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>56.02992841682685</v>
+        <v>1116428.118737589</v>
       </c>
       <c r="G129">
-        <v>126.6448899638985</v>
+        <v>4841356.410140049</v>
       </c>
       <c r="H129">
-        <v>1582.170031262435</v>
+        <v>3986006.574903758</v>
       </c>
       <c r="I129">
-        <v>-676.9052087680474</v>
+        <v>1115662.329118333</v>
       </c>
       <c r="J129">
-        <v>779.1850750298879</v>
+        <v>4842200.219250885</v>
       </c>
       <c r="K129">
-        <v>2740.10735798116</v>
+        <v>3987574.00769281</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4951,34 +4951,34 @@
         <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>54.13440558679553</v>
+        <v>1116425.895100415</v>
       </c>
       <c r="G130">
-        <v>142.5869014163635</v>
+        <v>4841372.922961536</v>
       </c>
       <c r="H130">
-        <v>1602.124852007586</v>
+        <v>3986027.186633327</v>
       </c>
       <c r="I130">
-        <v>-629.0535082275252</v>
+        <v>1115711.68653501</v>
       </c>
       <c r="J130">
-        <v>740.4362797973751</v>
+        <v>4842151.567676433</v>
       </c>
       <c r="K130">
-        <v>2727.834576024099</v>
+        <v>3987559.681791216</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4986,34 +4986,34 @@
         <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>52.41886182503842</v>
+        <v>1116423.882596624</v>
       </c>
       <c r="G131">
-        <v>158.5289128688285</v>
+        <v>4841389.435783022</v>
       </c>
       <c r="H131">
-        <v>1620.796361451607</v>
+        <v>3986046.472805235</v>
       </c>
       <c r="I131">
-        <v>-580.0235035839495</v>
+        <v>1115762.259332665</v>
       </c>
       <c r="J131">
-        <v>701.6874845648624</v>
+        <v>4842102.916101984</v>
       </c>
       <c r="K131">
-        <v>2702.584150001759</v>
+        <v>3987530.207209197</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5021,34 +5021,34 @@
         <v>42</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>50.85653890106704</v>
+        <v>1116422.049836144</v>
       </c>
       <c r="G132">
-        <v>174.4709243212935</v>
+        <v>4841405.948604508</v>
       </c>
       <c r="H132">
-        <v>1638.339694571235</v>
+        <v>3986064.593661474</v>
       </c>
       <c r="I132">
-        <v>-529.7861801828032</v>
+        <v>1115814.077438937</v>
       </c>
       <c r="J132">
-        <v>662.9386893323496</v>
+        <v>4842054.264527534</v>
       </c>
       <c r="K132">
-        <v>2664.35607991414</v>
+        <v>3987485.583946753</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5056,34 +5056,34 @@
         <v>42</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>49.42593058924137</v>
+        <v>1116420.371590031</v>
       </c>
       <c r="G133">
-        <v>190.4129357737584</v>
+        <v>4841422.461425995</v>
       </c>
       <c r="H133">
-        <v>1654.883451985337</v>
+        <v>3986081.682036169</v>
       </c>
       <c r="I133">
-        <v>-478.3118089103938</v>
+        <v>1115867.171518403</v>
       </c>
       <c r="J133">
-        <v>624.1898940998367</v>
+        <v>4842005.612953083</v>
       </c>
       <c r="K133">
-        <v>2613.150365761242</v>
+        <v>3987425.812003884</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5091,34 +5091,34 @@
         <v>42</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>48.10952874891581</v>
+        <v>1116418.827319489</v>
       </c>
       <c r="G134">
-        <v>206.3549472262234</v>
+        <v>4841438.974247482</v>
       </c>
       <c r="H134">
-        <v>1670.535426208235</v>
+        <v>3986097.849270343</v>
       </c>
       <c r="I134">
-        <v>-425.5699286009547</v>
+        <v>1115921.572990731</v>
       </c>
       <c r="J134">
-        <v>585.4410988673241</v>
+        <v>4841956.961378633</v>
       </c>
       <c r="K134">
-        <v>2548.967007543065</v>
+        <v>3987350.891380589</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5126,34 +5126,34 @@
         <v>42</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>46.89291659866675</v>
+        <v>1116417.400112198</v>
       </c>
       <c r="G135">
-        <v>222.2969586786884</v>
+        <v>4841455.487068969</v>
       </c>
       <c r="H135">
-        <v>1685.38686196257</v>
+        <v>3986113.189612478</v>
       </c>
       <c r="I135">
-        <v>-371.5293280105353</v>
+        <v>1115977.314049266</v>
       </c>
       <c r="J135">
-        <v>546.6923036348112</v>
+        <v>4841908.309804183</v>
       </c>
       <c r="K135">
-        <v>2471.806005259609</v>
+        <v>3987260.822076869</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5161,34 +5161,34 @@
         <v>42</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>45.76410109622746</v>
+        <v>1116416.075899124</v>
       </c>
       <c r="G136">
-        <v>238.2389701311533</v>
+        <v>4841471.999890455</v>
       </c>
       <c r="H136">
-        <v>1699.515679043951</v>
+        <v>3986127.783547474</v>
       </c>
       <c r="I136">
-        <v>-316.1580273470179</v>
+        <v>1116034.427680087</v>
       </c>
       <c r="J136">
-        <v>507.9435084022983</v>
+        <v>4841859.658229733</v>
       </c>
       <c r="K136">
-        <v>2381.667358910874</v>
+        <v>3987155.604092723</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5196,34 +5196,34 @@
         <v>42</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>44.71301336307045</v>
+        <v>1116414.842868469</v>
       </c>
       <c r="G137">
-        <v>254.1809815836183</v>
+        <v>4841488.512711942</v>
       </c>
       <c r="H137">
-        <v>1712.98894687041</v>
+        <v>3986141.70035266</v>
       </c>
       <c r="I137">
-        <v>-259.4232593453241</v>
+        <v>1116092.947681523</v>
       </c>
       <c r="J137">
-        <v>469.1947131697856</v>
+        <v>4841811.006655282</v>
       </c>
       <c r="K137">
-        <v>2278.55106849686</v>
+        <v>3987035.237428152</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5231,34 +5231,34 @@
         <v>42</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>43.73112938099966</v>
+        <v>1116413.69102071</v>
       </c>
       <c r="G138">
-        <v>270.1229930360833</v>
+        <v>4841505.025533429</v>
       </c>
       <c r="H138">
-        <v>1725.864809997597</v>
+        <v>3986155.000086701</v>
       </c>
       <c r="I138">
-        <v>-201.2914498766181</v>
+        <v>1116152.908684158</v>
       </c>
       <c r="J138">
-        <v>430.4459179372728</v>
+        <v>4841762.355080833</v>
       </c>
       <c r="K138">
-        <v>2162.457134017567</v>
+        <v>3986899.722083156</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5266,34 +5266,34 @@
         <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>42.81117819361537</v>
+        <v>1116412.611826292</v>
       </c>
       <c r="G139">
-        <v>286.0650044885483</v>
+        <v>4841521.538354916</v>
       </c>
       <c r="H139">
-        <v>1738.194004588321</v>
+        <v>3986167.735155983</v>
       </c>
       <c r="I139">
-        <v>-141.728198080029</v>
+        <v>1116214.346171319</v>
       </c>
       <c r="J139">
-        <v>391.6971227047601</v>
+        <v>4841713.703506382</v>
       </c>
       <c r="K139">
-        <v>2033.385555472996</v>
+        <v>3986749.058057735</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5301,34 +5301,34 @@
         <v>42</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>41.94691472669423</v>
+        <v>1116411.597959119</v>
       </c>
       <c r="G140">
-        <v>302.0070159410132</v>
+        <v>4841538.051176403</v>
       </c>
       <c r="H140">
-        <v>1750.021065874937</v>
+        <v>3986179.95156183</v>
       </c>
       <c r="I140">
-        <v>-80.6982560051356</v>
+        <v>1116277.29650008</v>
       </c>
       <c r="J140">
-        <v>352.9483274722473</v>
+        <v>4841665.051931933</v>
       </c>
       <c r="K140">
-        <v>1891.336332863144</v>
+        <v>3986583.245351888</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5336,34 +5336,34 @@
         <v>42</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>41.13294097774885</v>
+        <v>1116410.643086797</v>
       </c>
       <c r="G141">
-        <v>317.9490273934782</v>
+        <v>4841554.563997889</v>
       </c>
       <c r="H141">
-        <v>1761.385299223827</v>
+        <v>3986191.689903534</v>
       </c>
       <c r="I141">
-        <v>-18.16550775316544</v>
+        <v>1116341.796922773</v>
       </c>
       <c r="J141">
-        <v>314.1995322397345</v>
+        <v>4841616.400357481</v>
       </c>
       <c r="K141">
-        <v>1736.309466188014</v>
+        <v>3986402.283965616</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5371,34 +5371,34 @@
         <v>42</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>40.3645638624625</v>
+        <v>1116409.741703869</v>
       </c>
       <c r="G142">
-        <v>333.8910388459432</v>
+        <v>4841571.076819376</v>
       </c>
       <c r="H142">
-        <v>1772.321568254148</v>
+        <v>3986202.986192416</v>
       </c>
       <c r="I142">
-        <v>45.90705189543615</v>
+        <v>1116407.885609036</v>
       </c>
       <c r="J142">
-        <v>275.4507370072218</v>
+        <v>4841567.748783031</v>
       </c>
       <c r="K142">
-        <v>1568.304955447606</v>
+        <v>3986206.173898919</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5406,34 +5406,34 @@
         <v>42</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>39.63768115931232</v>
+        <v>1116408.888998023</v>
       </c>
       <c r="G143">
-        <v>349.8330502984081</v>
+        <v>4841587.589640863</v>
       </c>
       <c r="H143">
-        <v>1782.860939873101</v>
+        <v>3986213.872518102</v>
       </c>
       <c r="I143">
-        <v>111.5573393797104</v>
+        <v>1116475.601668397</v>
       </c>
       <c r="J143">
-        <v>236.701941774709</v>
+        <v>4841519.097208582</v>
       </c>
       <c r="K143">
-        <v>1387.322800641918</v>
+        <v>3985994.915151796</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5441,34 +5441,34 @@
         <v>42</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>38.94868921864829</v>
+        <v>1116408.080741816</v>
       </c>
       <c r="G144">
-        <v>365.7750617508731</v>
+        <v>4841604.102462349</v>
       </c>
       <c r="H144">
-        <v>1793.031216310883</v>
+        <v>3986224.377598065</v>
       </c>
       <c r="I144">
-        <v>178.8242047961286</v>
+        <v>1116544.985173423</v>
       </c>
       <c r="J144">
-        <v>197.9531465421963</v>
+        <v>4841470.445634131</v>
       </c>
       <c r="K144">
-        <v>1193.363001770952</v>
+        <v>3985768.507724248</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5476,34 +5476,34 @@
         <v>42</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>38.29440769410559</v>
+        <v>1116407.313204387</v>
       </c>
       <c r="G145">
-        <v>381.7170732033381</v>
+        <v>4841620.615283836</v>
       </c>
       <c r="H145">
-        <v>1802.857377108471</v>
+        <v>3986234.527234168</v>
       </c>
       <c r="I145">
-        <v>247.7474548890438</v>
+        <v>1116616.077183428</v>
       </c>
       <c r="J145">
-        <v>159.2043513096834</v>
+        <v>4841421.794059681</v>
       </c>
       <c r="K145">
-        <v>986.4255588347054</v>
+        <v>3985526.951616275</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5511,34 +5511,34 @@
         <v>42</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>37.67201770738635</v>
+        <v>1116406.58307891</v>
       </c>
       <c r="G146">
-        <v>397.659084655803</v>
+        <v>4841637.128105323</v>
       </c>
       <c r="H146">
-        <v>1812.361948749644</v>
+        <v>3986244.344694462</v>
       </c>
       <c r="I146">
-        <v>318.3678766072704</v>
+        <v>1116688.919768777</v>
       </c>
       <c r="J146">
-        <v>120.4555560771706</v>
+        <v>4841373.142485231</v>
       </c>
       <c r="K146">
-        <v>766.5104718331806</v>
+        <v>3985270.246827877</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5546,34 +5546,34 @@
         <v>42</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>37.07901070287043</v>
+        <v>1116405.887422599</v>
       </c>
       <c r="G147">
-        <v>413.6010961082681</v>
+        <v>4841653.640926809</v>
       </c>
       <c r="H147">
-        <v>1821.565315701808</v>
+        <v>3986253.851034466</v>
       </c>
       <c r="I147">
-        <v>390.7272612407104</v>
+        <v>1116763.556035775</v>
       </c>
       <c r="J147">
-        <v>81.70676084465792</v>
+        <v>4841324.490910781</v>
       </c>
       <c r="K147">
-        <v>533.6177407663773</v>
+        <v>3984998.393359053</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5581,34 +5581,34 @@
         <v>42</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>36.51314587517439</v>
+        <v>1116405.223606766</v>
       </c>
       <c r="G148">
-        <v>429.543107560733</v>
+        <v>4841670.153748296</v>
       </c>
       <c r="H148">
-        <v>1830.485983668889</v>
+        <v>3986263.06536909</v>
       </c>
       <c r="I148">
-        <v>464.8684291513374</v>
+        <v>1116840.030152185</v>
       </c>
       <c r="J148">
-        <v>42.95796561214508</v>
+        <v>4841275.839336331</v>
       </c>
       <c r="K148">
-        <v>287.7473656342942</v>
+        <v>3984711.391209804</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5616,34 +5616,34 @@
         <v>42</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>35.97241452204549</v>
+        <v>1116404.589275003</v>
       </c>
       <c r="G149">
-        <v>445.485119013198</v>
+        <v>4841686.666569783</v>
       </c>
       <c r="H149">
-        <v>1839.140803604794</v>
+        <v>3986272.005104018</v>
       </c>
       <c r="I149">
-        <v>540.8352551131391</v>
+        <v>1116918.387373356</v>
       </c>
       <c r="J149">
-        <v>4.209170379632235</v>
+        <v>4841227.18776188</v>
       </c>
       <c r="K149">
-        <v>28.89934643693239</v>
+        <v>3984409.240380129</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5651,34 +5651,34 @@
         <v>42</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>35.45501002976607</v>
+        <v>1116403.982307973</v>
       </c>
       <c r="G150">
-        <v>461.427130465663</v>
+        <v>4841703.17939127</v>
       </c>
       <c r="H150">
-        <v>1847.545163303367</v>
+        <v>3986280.686133605</v>
       </c>
       <c r="I150">
-        <v>618.6726942760511</v>
+        <v>1116998.674069011</v>
       </c>
       <c r="J150">
-        <v>-34.53962485288043</v>
+        <v>4841178.53618743</v>
       </c>
       <c r="K150">
-        <v>-242.9263168257077</v>
+        <v>3984091.940870029</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5686,34 +5686,34 @@
         <v>42</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>34.95930246888216</v>
+        <v>1116403.400793605</v>
       </c>
       <c r="G151">
-        <v>477.3691419181279</v>
+        <v>4841719.692212757</v>
       </c>
       <c r="H151">
-        <v>1855.7131520383</v>
+        <v>3986289.123010943</v>
       </c>
       <c r="I151">
-        <v>698.4268087692193</v>
+        <v>1117080.937750684</v>
       </c>
       <c r="J151">
-        <v>-73.28842008539327</v>
+        <v>4841129.88461298</v>
       </c>
       <c r="K151">
-        <v>-527.7296241536275</v>
+        <v>3983759.492679505</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5721,34 +5721,34 @@
         <v>42</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>34.48381698625399</v>
+        <v>1116402.843001751</v>
       </c>
       <c r="G152">
-        <v>493.3111533705929</v>
+        <v>4841736.205034243</v>
       </c>
       <c r="H152">
-        <v>1863.657702677945</v>
+        <v>3986297.329094646</v>
       </c>
       <c r="I152">
-        <v>780.1447949593423</v>
+        <v>1117165.227099837</v>
       </c>
       <c r="J152">
-        <v>-112.0372153179061</v>
+        <v>4841081.23303853</v>
       </c>
       <c r="K152">
-        <v>-825.510575546827</v>
+        <v>3983411.895808554</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5756,34 +5756,34 @@
         <v>42</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>34.0272153408424</v>
+        <v>1116402.307362519</v>
       </c>
       <c r="G153">
-        <v>509.2531648230579</v>
+        <v>4841752.71785573</v>
       </c>
       <c r="H153">
-        <v>1871.390714874815</v>
+        <v>3986305.316676103</v>
       </c>
       <c r="I153">
-        <v>863.8750113802282</v>
+        <v>1117251.591996668</v>
       </c>
       <c r="J153">
-        <v>-150.786010550419</v>
+        <v>4841032.581464079</v>
       </c>
       <c r="K153">
-        <v>-1136.269171005305</v>
+        <v>3983049.150257179</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5791,34 +5791,34 @@
         <v>42</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>33.58828005672046</v>
+        <v>1116401.79244769</v>
       </c>
       <c r="G154">
-        <v>525.1951762755228</v>
+        <v>4841769.230677217</v>
       </c>
       <c r="H154">
-        <v>1878.923162275831</v>
+        <v>3986313.097090209</v>
       </c>
       <c r="I154">
-        <v>949.6670073500914</v>
+        <v>1117340.08354963</v>
       </c>
       <c r="J154">
-        <v>-189.5348057829314</v>
+        <v>4840983.92988963</v>
       </c>
       <c r="K154">
-        <v>-1460.005410529059</v>
+        <v>3982671.256025378</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5826,34 +5826,34 @@
         <v>42</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>33.16590076597335</v>
+        <v>1116401.29695469</v>
       </c>
       <c r="G155">
-        <v>541.1371877279879</v>
+        <v>4841785.743498703</v>
       </c>
       <c r="H155">
-        <v>1886.265186177784</v>
+        <v>3986320.680812112</v>
       </c>
       <c r="I155">
-        <v>1037.571552293524</v>
+        <v>1117430.754125672</v>
       </c>
       <c r="J155">
-        <v>-228.2836010154443</v>
+        <v>4840935.278315179</v>
       </c>
       <c r="K155">
-        <v>-1796.719294118095</v>
+        <v>3982278.213113152</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5861,34 +5861,34 @@
         <v>42</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>32.75906239267103</v>
+        <v>1116400.819692736</v>
       </c>
       <c r="G156">
-        <v>557.0791991804527</v>
+        <v>4841802.25632019</v>
       </c>
       <c r="H156">
-        <v>1893.426177633921</v>
+        <v>3986328.077542017</v>
       </c>
       <c r="I156">
-        <v>1127.64066578549</v>
+        <v>1117523.657381234</v>
       </c>
       <c r="J156">
-        <v>-267.0323962479571</v>
+        <v>4840886.626740729</v>
       </c>
       <c r="K156">
-        <v>-2146.41082177241</v>
+        <v>3981870.0215205</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5896,34 +5896,34 @@
         <v>42</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>32.36683489166343</v>
+        <v>1116400.359570791</v>
       </c>
       <c r="G157">
-        <v>573.0212106329177</v>
+        <v>4841818.769141677</v>
       </c>
       <c r="H157">
-        <v>1900.414849679526</v>
+        <v>3986335.296279788</v>
       </c>
       <c r="I157">
-        <v>1219.92764833513</v>
+        <v>1117618.848293995</v>
       </c>
       <c r="J157">
-        <v>-305.78119148047</v>
+        <v>4840837.975166279</v>
       </c>
       <c r="K157">
-        <v>-2509.079993492005</v>
+        <v>3981446.681247423</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5931,34 +5931,34 @@
         <v>42</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>31.98836430609495</v>
+        <v>1116399.915587078</v>
       </c>
       <c r="G158">
-        <v>588.9632220853828</v>
+        <v>4841835.281963163</v>
       </c>
       <c r="H158">
-        <v>1907.23930106998</v>
+        <v>3986342.345390793</v>
       </c>
       <c r="I158">
-        <v>1314.48711292759</v>
+        <v>1117716.383195408</v>
       </c>
       <c r="J158">
-        <v>-344.5299867129828</v>
+        <v>4840789.323591828</v>
       </c>
       <c r="K158">
-        <v>-2884.726809276877</v>
+        <v>3981008.192293921</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5966,34 +5966,34 @@
         <v>42</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>31.62286494795071</v>
+        <v>1116399.486819908</v>
       </c>
       <c r="G159">
-        <v>604.9052335378477</v>
+        <v>4841851.79478465</v>
       </c>
       <c r="H159">
-        <v>1913.907072700743</v>
+        <v>3986349.232664171</v>
       </c>
       <c r="I159">
-        <v>1411.375017342524</v>
+        <v>1117816.319804039</v>
       </c>
       <c r="J159">
-        <v>-383.2787819454953</v>
+        <v>4840740.672017379</v>
       </c>
       <c r="K159">
-        <v>-3273.351269127026</v>
+        <v>3980554.554659994</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6001,34 +6001,34 @@
         <v>42</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>31.26961253870225</v>
+        <v>1116399.072419629</v>
       </c>
       <c r="G160">
-        <v>620.8472449903127</v>
+        <v>4841868.307606137</v>
       </c>
       <c r="H160">
-        <v>1920.425197694927</v>
+        <v>3986355.965364574</v>
       </c>
       <c r="I160">
-        <v>1510.64869726844</v>
+        <v>1117918.717259717</v>
       </c>
       <c r="J160">
-        <v>-422.0275771780081</v>
+        <v>4840692.020442928</v>
       </c>
       <c r="K160">
-        <v>-3674.953373042457</v>
+        <v>3980085.768345641</v>
       </c>
     </row>
   </sheetData>
